--- a/bunseki.xlsx
+++ b/bunseki.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Office\☆kiji\michiyuki68.github.io\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="320" yWindow="50" windowWidth="12450" windowHeight="8320"/>
+    <workbookView xWindow="315" yWindow="45" windowWidth="12450" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
-  <si>
-    <t>grid__item</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>class="title title--preview"</t>
   </si>
@@ -168,12 +170,28 @@
     <t>aタグ　element-item metalloid click</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>grid__item</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>aタグ　grid__item metalloid click</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Isotope</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +218,14 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -307,7 +333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,6 +373,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -357,12 +386,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -404,7 +436,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,9 +469,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,6 +521,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -648,103 +714,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:CV52"/>
+  <dimension ref="D1:EO53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BR15" sqref="BR15"/>
+      <selection activeCell="CD20" sqref="CD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="1.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="1.08984375" style="1"/>
+    <col min="1" max="16384" width="1.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:100" x14ac:dyDescent="0.2">
-      <c r="D2" s="1" t="s">
+    <row r="1" spans="4:145" x14ac:dyDescent="0.15">
+      <c r="D1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL1" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="4:145" x14ac:dyDescent="0.15">
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BU3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="DE3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="DN3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BU2" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="3" spans="4:100" x14ac:dyDescent="0.2">
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
-      <c r="BG3" s="3"/>
-      <c r="BH3" s="4"/>
-      <c r="BM3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="4:100" x14ac:dyDescent="0.2">
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="2"/>
+    <row r="4" spans="4:145" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -752,9 +768,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -794,12 +808,13 @@
       <c r="BD4" s="3"/>
       <c r="BE4" s="3"/>
       <c r="BF4" s="3"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="7"/>
-      <c r="BM4" s="2"/>
-      <c r="BN4" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="4"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN4" s="3"/>
       <c r="BO4" s="3"/>
       <c r="BP4" s="3"/>
       <c r="BQ4" s="3"/>
@@ -833,27 +848,34 @@
       <c r="CS4" s="3"/>
       <c r="CT4" s="3"/>
       <c r="CU4" s="3"/>
-      <c r="CV4" s="4"/>
+      <c r="CV4" s="3"/>
+      <c r="CW4" s="3"/>
+      <c r="CX4" s="4"/>
+      <c r="DF4" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="S5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -883,23 +905,24 @@
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="6"/>
-      <c r="AY5" s="6"/>
-      <c r="AZ5" s="6"/>
-      <c r="BA5" s="6"/>
-      <c r="BB5" s="6"/>
-      <c r="BC5" s="6"/>
-      <c r="BD5" s="6"/>
-      <c r="BE5" s="6"/>
-      <c r="BF5" s="6"/>
-      <c r="BG5" s="7"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="4"/>
       <c r="BH5" s="7"/>
-      <c r="BM5" s="5"/>
-      <c r="BN5" s="2"/>
-      <c r="BO5" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="BL5" s="5"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BO5" s="3"/>
       <c r="BP5" s="3"/>
       <c r="BQ5" s="3"/>
       <c r="BR5" s="3"/>
@@ -911,9 +934,7 @@
       <c r="BX5" s="3"/>
       <c r="BY5" s="3"/>
       <c r="BZ5" s="3"/>
-      <c r="CA5" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="CA5" s="3"/>
       <c r="CB5" s="3"/>
       <c r="CC5" s="3"/>
       <c r="CD5" s="3"/>
@@ -933,10 +954,50 @@
       <c r="CR5" s="3"/>
       <c r="CS5" s="3"/>
       <c r="CT5" s="3"/>
-      <c r="CU5" s="4"/>
-      <c r="CV5" s="7"/>
+      <c r="CU5" s="3"/>
+      <c r="CV5" s="4"/>
+      <c r="CW5" s="6"/>
+      <c r="CX5" s="7"/>
+      <c r="DF5" s="2"/>
+      <c r="DG5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="DH5" s="3"/>
+      <c r="DI5" s="3"/>
+      <c r="DJ5" s="3"/>
+      <c r="DK5" s="3"/>
+      <c r="DL5" s="3"/>
+      <c r="DM5" s="3"/>
+      <c r="DN5" s="3"/>
+      <c r="DO5" s="3"/>
+      <c r="DP5" s="3"/>
+      <c r="DQ5" s="3"/>
+      <c r="DR5" s="3"/>
+      <c r="DS5" s="3"/>
+      <c r="DT5" s="3"/>
+      <c r="DU5" s="3"/>
+      <c r="DV5" s="3"/>
+      <c r="DW5" s="3"/>
+      <c r="DX5" s="3"/>
+      <c r="DY5" s="3"/>
+      <c r="DZ5" s="3"/>
+      <c r="EA5" s="3"/>
+      <c r="EB5" s="3"/>
+      <c r="EC5" s="3"/>
+      <c r="ED5" s="3"/>
+      <c r="EE5" s="3"/>
+      <c r="EF5" s="3"/>
+      <c r="EG5" s="3"/>
+      <c r="EH5" s="3"/>
+      <c r="EI5" s="3"/>
+      <c r="EJ5" s="3"/>
+      <c r="EK5" s="3"/>
+      <c r="EL5" s="3"/>
+      <c r="EM5" s="3"/>
+      <c r="EN5" s="3"/>
+      <c r="EO5" s="4"/>
     </row>
-    <row r="6" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
@@ -944,45 +1005,47 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="10"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="4"/>
       <c r="AX6" s="6"/>
       <c r="AY6" s="6"/>
       <c r="AZ6" s="6"/>
@@ -994,13 +1057,14 @@
       <c r="BF6" s="6"/>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7"/>
+      <c r="BL6" s="5"/>
       <c r="BM6" s="5"/>
-      <c r="BN6" s="5"/>
-      <c r="BO6" s="2"/>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="BP6" s="3"/>
-      <c r="BQ6" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="BQ6" s="3"/>
       <c r="BR6" s="3"/>
       <c r="BS6" s="3"/>
       <c r="BT6" s="3"/>
@@ -1010,7 +1074,9 @@
       <c r="BX6" s="3"/>
       <c r="BY6" s="3"/>
       <c r="BZ6" s="3"/>
-      <c r="CA6" s="3"/>
+      <c r="CA6" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="CB6" s="3"/>
       <c r="CC6" s="3"/>
       <c r="CD6" s="3"/>
@@ -1029,11 +1095,53 @@
       <c r="CQ6" s="3"/>
       <c r="CR6" s="3"/>
       <c r="CS6" s="3"/>
-      <c r="CT6" s="4"/>
-      <c r="CU6" s="7"/>
+      <c r="CT6" s="3"/>
+      <c r="CU6" s="4"/>
       <c r="CV6" s="7"/>
+      <c r="CW6" s="6"/>
+      <c r="CX6" s="7"/>
+      <c r="DF6" s="5"/>
+      <c r="DG6" s="2"/>
+      <c r="DH6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="DI6" s="3"/>
+      <c r="DJ6" s="3"/>
+      <c r="DK6" s="3"/>
+      <c r="DL6" s="3"/>
+      <c r="DM6" s="3"/>
+      <c r="DN6" s="3"/>
+      <c r="DO6" s="3"/>
+      <c r="DP6" s="3"/>
+      <c r="DQ6" s="3"/>
+      <c r="DR6" s="3"/>
+      <c r="DS6" s="3"/>
+      <c r="DT6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="DU6" s="3"/>
+      <c r="DV6" s="3"/>
+      <c r="DW6" s="3"/>
+      <c r="DX6" s="3"/>
+      <c r="DY6" s="3"/>
+      <c r="DZ6" s="3"/>
+      <c r="EA6" s="3"/>
+      <c r="EB6" s="3"/>
+      <c r="EC6" s="3"/>
+      <c r="ED6" s="3"/>
+      <c r="EE6" s="3"/>
+      <c r="EF6" s="3"/>
+      <c r="EG6" s="3"/>
+      <c r="EH6" s="3"/>
+      <c r="EI6" s="3"/>
+      <c r="EJ6" s="3"/>
+      <c r="EK6" s="3"/>
+      <c r="EL6" s="3"/>
+      <c r="EM6" s="3"/>
+      <c r="EN6" s="4"/>
+      <c r="EO6" s="7"/>
     </row>
-    <row r="7" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
@@ -1041,49 +1149,45 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="10"/>
       <c r="AX7" s="6"/>
       <c r="AY7" s="6"/>
       <c r="AZ7" s="6"/>
@@ -1095,14 +1199,15 @@
       <c r="BF7" s="6"/>
       <c r="BG7" s="7"/>
       <c r="BH7" s="7"/>
+      <c r="BL7" s="5"/>
       <c r="BM7" s="5"/>
       <c r="BN7" s="5"/>
-      <c r="BO7" s="5"/>
-      <c r="BP7" s="6"/>
-      <c r="BQ7" s="2"/>
-      <c r="BR7" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="BO7" s="2"/>
+      <c r="BP7" s="3"/>
+      <c r="BQ7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR7" s="3"/>
       <c r="BS7" s="3"/>
       <c r="BT7" s="3"/>
       <c r="BU7" s="3"/>
@@ -1124,17 +1229,57 @@
       <c r="CK7" s="3"/>
       <c r="CL7" s="3"/>
       <c r="CM7" s="3"/>
-      <c r="CN7" s="4"/>
-      <c r="CO7" s="6"/>
-      <c r="CP7" s="6"/>
-      <c r="CQ7" s="6"/>
-      <c r="CR7" s="6"/>
-      <c r="CS7" s="6"/>
-      <c r="CT7" s="7"/>
+      <c r="CN7" s="3"/>
+      <c r="CO7" s="3"/>
+      <c r="CP7" s="3"/>
+      <c r="CQ7" s="3"/>
+      <c r="CR7" s="3"/>
+      <c r="CS7" s="3"/>
+      <c r="CT7" s="4"/>
       <c r="CU7" s="7"/>
       <c r="CV7" s="7"/>
+      <c r="CW7" s="6"/>
+      <c r="CX7" s="7"/>
+      <c r="DF7" s="5"/>
+      <c r="DG7" s="5"/>
+      <c r="DH7" s="2"/>
+      <c r="DI7" s="3"/>
+      <c r="DJ7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="DK7" s="3"/>
+      <c r="DL7" s="3"/>
+      <c r="DM7" s="3"/>
+      <c r="DN7" s="3"/>
+      <c r="DO7" s="3"/>
+      <c r="DP7" s="3"/>
+      <c r="DQ7" s="3"/>
+      <c r="DR7" s="3"/>
+      <c r="DS7" s="3"/>
+      <c r="DT7" s="3"/>
+      <c r="DU7" s="3"/>
+      <c r="DV7" s="3"/>
+      <c r="DW7" s="3"/>
+      <c r="DX7" s="3"/>
+      <c r="DY7" s="3"/>
+      <c r="DZ7" s="3"/>
+      <c r="EA7" s="3"/>
+      <c r="EB7" s="3"/>
+      <c r="EC7" s="3"/>
+      <c r="ED7" s="3"/>
+      <c r="EE7" s="3"/>
+      <c r="EF7" s="3"/>
+      <c r="EG7" s="3"/>
+      <c r="EH7" s="3"/>
+      <c r="EI7" s="3"/>
+      <c r="EJ7" s="3"/>
+      <c r="EK7" s="3"/>
+      <c r="EL7" s="3"/>
+      <c r="EM7" s="4"/>
+      <c r="EN7" s="7"/>
+      <c r="EO7" s="7"/>
     </row>
-    <row r="8" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
@@ -1142,52 +1287,52 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3" t="s">
+      <c r="K8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="4"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
       <c r="BA8" s="6"/>
       <c r="BB8" s="6"/>
       <c r="BC8" s="6"/>
@@ -1196,15 +1341,16 @@
       <c r="BF8" s="6"/>
       <c r="BG8" s="7"/>
       <c r="BH8" s="7"/>
+      <c r="BL8" s="5"/>
       <c r="BM8" s="5"/>
       <c r="BN8" s="5"/>
       <c r="BO8" s="5"/>
       <c r="BP8" s="6"/>
-      <c r="BQ8" s="5"/>
-      <c r="BR8" s="2"/>
-      <c r="BS8" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="BQ8" s="2"/>
+      <c r="BR8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS8" s="3"/>
       <c r="BT8" s="3"/>
       <c r="BU8" s="3"/>
       <c r="BV8" s="3"/>
@@ -1218,14 +1364,14 @@
       <c r="CD8" s="3"/>
       <c r="CE8" s="3"/>
       <c r="CF8" s="3"/>
-      <c r="CG8" s="4"/>
-      <c r="CH8" s="6"/>
-      <c r="CI8" s="6"/>
-      <c r="CJ8" s="6"/>
-      <c r="CK8" s="6"/>
-      <c r="CL8" s="6"/>
-      <c r="CM8" s="6"/>
-      <c r="CN8" s="7"/>
+      <c r="CG8" s="3"/>
+      <c r="CH8" s="3"/>
+      <c r="CI8" s="3"/>
+      <c r="CJ8" s="3"/>
+      <c r="CK8" s="3"/>
+      <c r="CL8" s="3"/>
+      <c r="CM8" s="3"/>
+      <c r="CN8" s="4"/>
       <c r="CO8" s="6"/>
       <c r="CP8" s="6"/>
       <c r="CQ8" s="6"/>
@@ -1234,8 +1380,48 @@
       <c r="CT8" s="7"/>
       <c r="CU8" s="7"/>
       <c r="CV8" s="7"/>
+      <c r="CW8" s="6"/>
+      <c r="CX8" s="7"/>
+      <c r="DF8" s="5"/>
+      <c r="DG8" s="5"/>
+      <c r="DH8" s="5"/>
+      <c r="DI8" s="6"/>
+      <c r="DJ8" s="2"/>
+      <c r="DK8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="DL8" s="3"/>
+      <c r="DM8" s="3"/>
+      <c r="DN8" s="3"/>
+      <c r="DO8" s="3"/>
+      <c r="DP8" s="3"/>
+      <c r="DQ8" s="3"/>
+      <c r="DR8" s="3"/>
+      <c r="DS8" s="3"/>
+      <c r="DT8" s="3"/>
+      <c r="DU8" s="3"/>
+      <c r="DV8" s="3"/>
+      <c r="DW8" s="3"/>
+      <c r="DX8" s="3"/>
+      <c r="DY8" s="3"/>
+      <c r="DZ8" s="3"/>
+      <c r="EA8" s="3"/>
+      <c r="EB8" s="3"/>
+      <c r="EC8" s="3"/>
+      <c r="ED8" s="3"/>
+      <c r="EE8" s="3"/>
+      <c r="EF8" s="3"/>
+      <c r="EG8" s="4"/>
+      <c r="EH8" s="6"/>
+      <c r="EI8" s="6"/>
+      <c r="EJ8" s="6"/>
+      <c r="EK8" s="6"/>
+      <c r="EL8" s="6"/>
+      <c r="EM8" s="7"/>
+      <c r="EN8" s="7"/>
+      <c r="EO8" s="7"/>
     </row>
-    <row r="9" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
       <c r="F9" s="5"/>
@@ -1243,18 +1429,20 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="T9" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -1283,10 +1471,10 @@
       <c r="AT9" s="3"/>
       <c r="AU9" s="3"/>
       <c r="AV9" s="3"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="6"/>
-      <c r="AY9" s="6"/>
-      <c r="AZ9" s="7"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="4"/>
       <c r="BA9" s="6"/>
       <c r="BB9" s="6"/>
       <c r="BC9" s="6"/>
@@ -1295,29 +1483,30 @@
       <c r="BF9" s="6"/>
       <c r="BG9" s="7"/>
       <c r="BH9" s="7"/>
+      <c r="BL9" s="5"/>
       <c r="BM9" s="5"/>
       <c r="BN9" s="5"/>
       <c r="BO9" s="5"/>
       <c r="BP9" s="6"/>
       <c r="BQ9" s="5"/>
-      <c r="BR9" s="5"/>
-      <c r="BS9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="BT9" s="6"/>
-      <c r="BU9" s="6"/>
-      <c r="BV9" s="6"/>
-      <c r="BW9" s="6"/>
-      <c r="BX9" s="6"/>
-      <c r="BY9" s="6"/>
-      <c r="BZ9" s="6"/>
-      <c r="CA9" s="6"/>
-      <c r="CB9" s="6"/>
-      <c r="CC9" s="6"/>
-      <c r="CD9" s="6"/>
-      <c r="CE9" s="6"/>
-      <c r="CF9" s="6"/>
-      <c r="CG9" s="7"/>
+      <c r="BR9" s="2"/>
+      <c r="BS9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="3"/>
+      <c r="BV9" s="3"/>
+      <c r="BW9" s="3"/>
+      <c r="BX9" s="3"/>
+      <c r="BY9" s="3"/>
+      <c r="BZ9" s="3"/>
+      <c r="CA9" s="3"/>
+      <c r="CB9" s="3"/>
+      <c r="CC9" s="3"/>
+      <c r="CD9" s="3"/>
+      <c r="CE9" s="3"/>
+      <c r="CF9" s="3"/>
+      <c r="CG9" s="4"/>
       <c r="CH9" s="6"/>
       <c r="CI9" s="6"/>
       <c r="CJ9" s="6"/>
@@ -1333,8 +1522,48 @@
       <c r="CT9" s="7"/>
       <c r="CU9" s="7"/>
       <c r="CV9" s="7"/>
+      <c r="CW9" s="6"/>
+      <c r="CX9" s="7"/>
+      <c r="DF9" s="5"/>
+      <c r="DG9" s="5"/>
+      <c r="DH9" s="5"/>
+      <c r="DI9" s="6"/>
+      <c r="DJ9" s="5"/>
+      <c r="DK9" s="2"/>
+      <c r="DL9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM9" s="3"/>
+      <c r="DN9" s="3"/>
+      <c r="DO9" s="3"/>
+      <c r="DP9" s="3"/>
+      <c r="DQ9" s="3"/>
+      <c r="DR9" s="3"/>
+      <c r="DS9" s="3"/>
+      <c r="DT9" s="3"/>
+      <c r="DU9" s="3"/>
+      <c r="DV9" s="3"/>
+      <c r="DW9" s="3"/>
+      <c r="DX9" s="3"/>
+      <c r="DY9" s="3"/>
+      <c r="DZ9" s="4"/>
+      <c r="EA9" s="6"/>
+      <c r="EB9" s="6"/>
+      <c r="EC9" s="6"/>
+      <c r="ED9" s="6"/>
+      <c r="EE9" s="6"/>
+      <c r="EF9" s="6"/>
+      <c r="EG9" s="7"/>
+      <c r="EH9" s="6"/>
+      <c r="EI9" s="6"/>
+      <c r="EJ9" s="6"/>
+      <c r="EK9" s="6"/>
+      <c r="EL9" s="6"/>
+      <c r="EM9" s="7"/>
+      <c r="EN9" s="7"/>
+      <c r="EO9" s="7"/>
     </row>
-    <row r="10" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
       <c r="F10" s="5"/>
@@ -1345,44 +1574,44 @@
       <c r="K10" s="5"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="6"/>
-      <c r="AQ10" s="6"/>
-      <c r="AR10" s="6"/>
-      <c r="AS10" s="6"/>
-      <c r="AT10" s="6"/>
-      <c r="AU10" s="6"/>
-      <c r="AV10" s="6"/>
-      <c r="AW10" s="7"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="4"/>
       <c r="AX10" s="6"/>
       <c r="AY10" s="6"/>
       <c r="AZ10" s="7"/>
@@ -1394,29 +1623,30 @@
       <c r="BF10" s="6"/>
       <c r="BG10" s="7"/>
       <c r="BH10" s="7"/>
+      <c r="BL10" s="5"/>
       <c r="BM10" s="5"/>
       <c r="BN10" s="5"/>
       <c r="BO10" s="5"/>
       <c r="BP10" s="6"/>
       <c r="BQ10" s="5"/>
-      <c r="BR10" s="8"/>
-      <c r="BS10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="BT10" s="9"/>
-      <c r="BU10" s="9"/>
-      <c r="BV10" s="9"/>
-      <c r="BW10" s="9"/>
-      <c r="BX10" s="9"/>
-      <c r="BY10" s="9"/>
-      <c r="BZ10" s="9"/>
-      <c r="CA10" s="9"/>
-      <c r="CB10" s="9"/>
-      <c r="CC10" s="9"/>
-      <c r="CD10" s="9"/>
-      <c r="CE10" s="9"/>
-      <c r="CF10" s="9"/>
-      <c r="CG10" s="10"/>
+      <c r="BR10" s="5"/>
+      <c r="BS10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="BT10" s="6"/>
+      <c r="BU10" s="6"/>
+      <c r="BV10" s="6"/>
+      <c r="BW10" s="6"/>
+      <c r="BX10" s="6"/>
+      <c r="BY10" s="6"/>
+      <c r="BZ10" s="6"/>
+      <c r="CA10" s="6"/>
+      <c r="CB10" s="6"/>
+      <c r="CC10" s="6"/>
+      <c r="CD10" s="6"/>
+      <c r="CE10" s="6"/>
+      <c r="CF10" s="6"/>
+      <c r="CG10" s="7"/>
       <c r="CH10" s="6"/>
       <c r="CI10" s="6"/>
       <c r="CJ10" s="6"/>
@@ -1432,8 +1662,48 @@
       <c r="CT10" s="7"/>
       <c r="CU10" s="7"/>
       <c r="CV10" s="7"/>
+      <c r="CW10" s="6"/>
+      <c r="CX10" s="7"/>
+      <c r="DF10" s="5"/>
+      <c r="DG10" s="5"/>
+      <c r="DH10" s="5"/>
+      <c r="DI10" s="6"/>
+      <c r="DJ10" s="5"/>
+      <c r="DK10" s="5"/>
+      <c r="DL10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="DM10" s="6"/>
+      <c r="DN10" s="6"/>
+      <c r="DO10" s="6"/>
+      <c r="DP10" s="6"/>
+      <c r="DQ10" s="6"/>
+      <c r="DR10" s="6"/>
+      <c r="DS10" s="6"/>
+      <c r="DT10" s="6"/>
+      <c r="DU10" s="6"/>
+      <c r="DV10" s="6"/>
+      <c r="DW10" s="6"/>
+      <c r="DX10" s="6"/>
+      <c r="DY10" s="6"/>
+      <c r="DZ10" s="7"/>
+      <c r="EA10" s="6"/>
+      <c r="EB10" s="6"/>
+      <c r="EC10" s="6"/>
+      <c r="ED10" s="6"/>
+      <c r="EE10" s="6"/>
+      <c r="EF10" s="6"/>
+      <c r="EG10" s="7"/>
+      <c r="EH10" s="6"/>
+      <c r="EI10" s="6"/>
+      <c r="EJ10" s="6"/>
+      <c r="EK10" s="6"/>
+      <c r="EL10" s="6"/>
+      <c r="EM10" s="7"/>
+      <c r="EN10" s="7"/>
+      <c r="EO10" s="7"/>
     </row>
-    <row r="11" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
       <c r="F11" s="5"/>
@@ -1450,7 +1720,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -1493,13 +1763,16 @@
       <c r="BF11" s="6"/>
       <c r="BG11" s="7"/>
       <c r="BH11" s="7"/>
+      <c r="BL11" s="5"/>
       <c r="BM11" s="5"/>
       <c r="BN11" s="5"/>
       <c r="BO11" s="5"/>
       <c r="BP11" s="6"/>
-      <c r="BQ11" s="8"/>
-      <c r="BR11" s="9"/>
-      <c r="BS11" s="9"/>
+      <c r="BQ11" s="5"/>
+      <c r="BR11" s="8"/>
+      <c r="BS11" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="BT11" s="9"/>
       <c r="BU11" s="9"/>
       <c r="BV11" s="9"/>
@@ -1513,14 +1786,14 @@
       <c r="CD11" s="9"/>
       <c r="CE11" s="9"/>
       <c r="CF11" s="9"/>
-      <c r="CG11" s="9"/>
-      <c r="CH11" s="9"/>
-      <c r="CI11" s="9"/>
-      <c r="CJ11" s="9"/>
-      <c r="CK11" s="9"/>
-      <c r="CL11" s="9"/>
-      <c r="CM11" s="9"/>
-      <c r="CN11" s="10"/>
+      <c r="CG11" s="10"/>
+      <c r="CH11" s="6"/>
+      <c r="CI11" s="6"/>
+      <c r="CJ11" s="6"/>
+      <c r="CK11" s="6"/>
+      <c r="CL11" s="6"/>
+      <c r="CM11" s="6"/>
+      <c r="CN11" s="7"/>
       <c r="CO11" s="6"/>
       <c r="CP11" s="6"/>
       <c r="CQ11" s="6"/>
@@ -1529,8 +1802,48 @@
       <c r="CT11" s="7"/>
       <c r="CU11" s="7"/>
       <c r="CV11" s="7"/>
+      <c r="CW11" s="6"/>
+      <c r="CX11" s="7"/>
+      <c r="DF11" s="5"/>
+      <c r="DG11" s="5"/>
+      <c r="DH11" s="5"/>
+      <c r="DI11" s="6"/>
+      <c r="DJ11" s="5"/>
+      <c r="DK11" s="8"/>
+      <c r="DL11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="DM11" s="9"/>
+      <c r="DN11" s="9"/>
+      <c r="DO11" s="9"/>
+      <c r="DP11" s="9"/>
+      <c r="DQ11" s="9"/>
+      <c r="DR11" s="9"/>
+      <c r="DS11" s="9"/>
+      <c r="DT11" s="9"/>
+      <c r="DU11" s="9"/>
+      <c r="DV11" s="9"/>
+      <c r="DW11" s="9"/>
+      <c r="DX11" s="9"/>
+      <c r="DY11" s="9"/>
+      <c r="DZ11" s="10"/>
+      <c r="EA11" s="6"/>
+      <c r="EB11" s="6"/>
+      <c r="EC11" s="6"/>
+      <c r="ED11" s="6"/>
+      <c r="EE11" s="6"/>
+      <c r="EF11" s="6"/>
+      <c r="EG11" s="7"/>
+      <c r="EH11" s="6"/>
+      <c r="EI11" s="6"/>
+      <c r="EJ11" s="6"/>
+      <c r="EK11" s="6"/>
+      <c r="EL11" s="6"/>
+      <c r="EM11" s="7"/>
+      <c r="EN11" s="7"/>
+      <c r="EO11" s="7"/>
     </row>
-    <row r="12" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
       <c r="F12" s="5"/>
@@ -1546,7 +1859,9 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
+      <c r="S12" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
@@ -1588,34 +1903,35 @@
       <c r="BF12" s="6"/>
       <c r="BG12" s="7"/>
       <c r="BH12" s="7"/>
+      <c r="BL12" s="5"/>
       <c r="BM12" s="5"/>
       <c r="BN12" s="5"/>
       <c r="BO12" s="5"/>
       <c r="BP12" s="6"/>
-      <c r="BQ12" s="6"/>
-      <c r="BR12" s="6"/>
-      <c r="BS12" s="6"/>
-      <c r="BT12" s="6"/>
-      <c r="BU12" s="6"/>
-      <c r="BV12" s="6"/>
-      <c r="BW12" s="6"/>
-      <c r="BX12" s="6"/>
-      <c r="BY12" s="6"/>
-      <c r="BZ12" s="6"/>
-      <c r="CA12" s="6"/>
-      <c r="CB12" s="6"/>
-      <c r="CC12" s="6"/>
-      <c r="CD12" s="6"/>
-      <c r="CE12" s="6"/>
-      <c r="CF12" s="6"/>
-      <c r="CG12" s="6"/>
-      <c r="CH12" s="6"/>
-      <c r="CI12" s="6"/>
-      <c r="CJ12" s="6"/>
-      <c r="CK12" s="6"/>
-      <c r="CL12" s="6"/>
-      <c r="CM12" s="6"/>
-      <c r="CN12" s="6"/>
+      <c r="BQ12" s="8"/>
+      <c r="BR12" s="9"/>
+      <c r="BS12" s="9"/>
+      <c r="BT12" s="9"/>
+      <c r="BU12" s="9"/>
+      <c r="BV12" s="9"/>
+      <c r="BW12" s="9"/>
+      <c r="BX12" s="9"/>
+      <c r="BY12" s="9"/>
+      <c r="BZ12" s="9"/>
+      <c r="CA12" s="9"/>
+      <c r="CB12" s="9"/>
+      <c r="CC12" s="9"/>
+      <c r="CD12" s="9"/>
+      <c r="CE12" s="9"/>
+      <c r="CF12" s="9"/>
+      <c r="CG12" s="9"/>
+      <c r="CH12" s="9"/>
+      <c r="CI12" s="9"/>
+      <c r="CJ12" s="9"/>
+      <c r="CK12" s="9"/>
+      <c r="CL12" s="9"/>
+      <c r="CM12" s="9"/>
+      <c r="CN12" s="10"/>
       <c r="CO12" s="6"/>
       <c r="CP12" s="6"/>
       <c r="CQ12" s="6"/>
@@ -1624,8 +1940,46 @@
       <c r="CT12" s="7"/>
       <c r="CU12" s="7"/>
       <c r="CV12" s="7"/>
+      <c r="CW12" s="6"/>
+      <c r="CX12" s="7"/>
+      <c r="DF12" s="5"/>
+      <c r="DG12" s="5"/>
+      <c r="DH12" s="5"/>
+      <c r="DI12" s="6"/>
+      <c r="DJ12" s="8"/>
+      <c r="DK12" s="9"/>
+      <c r="DL12" s="9"/>
+      <c r="DM12" s="9"/>
+      <c r="DN12" s="9"/>
+      <c r="DO12" s="9"/>
+      <c r="DP12" s="9"/>
+      <c r="DQ12" s="9"/>
+      <c r="DR12" s="9"/>
+      <c r="DS12" s="9"/>
+      <c r="DT12" s="9"/>
+      <c r="DU12" s="9"/>
+      <c r="DV12" s="9"/>
+      <c r="DW12" s="9"/>
+      <c r="DX12" s="9"/>
+      <c r="DY12" s="9"/>
+      <c r="DZ12" s="9"/>
+      <c r="EA12" s="9"/>
+      <c r="EB12" s="9"/>
+      <c r="EC12" s="9"/>
+      <c r="ED12" s="9"/>
+      <c r="EE12" s="9"/>
+      <c r="EF12" s="9"/>
+      <c r="EG12" s="10"/>
+      <c r="EH12" s="6"/>
+      <c r="EI12" s="6"/>
+      <c r="EJ12" s="6"/>
+      <c r="EK12" s="6"/>
+      <c r="EL12" s="6"/>
+      <c r="EM12" s="7"/>
+      <c r="EN12" s="7"/>
+      <c r="EO12" s="7"/>
     </row>
-    <row r="13" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
       <c r="F13" s="5"/>
@@ -1639,9 +1993,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="11" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -1685,13 +2037,12 @@
       <c r="BF13" s="6"/>
       <c r="BG13" s="7"/>
       <c r="BH13" s="7"/>
+      <c r="BL13" s="5"/>
       <c r="BM13" s="5"/>
       <c r="BN13" s="5"/>
       <c r="BO13" s="5"/>
       <c r="BP13" s="6"/>
-      <c r="BQ13" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="BQ13" s="6"/>
       <c r="BR13" s="6"/>
       <c r="BS13" s="6"/>
       <c r="BT13" s="6"/>
@@ -1723,8 +2074,46 @@
       <c r="CT13" s="7"/>
       <c r="CU13" s="7"/>
       <c r="CV13" s="7"/>
+      <c r="CW13" s="6"/>
+      <c r="CX13" s="7"/>
+      <c r="DF13" s="5"/>
+      <c r="DG13" s="5"/>
+      <c r="DH13" s="5"/>
+      <c r="DI13" s="6"/>
+      <c r="DJ13" s="6"/>
+      <c r="DK13" s="6"/>
+      <c r="DL13" s="6"/>
+      <c r="DM13" s="6"/>
+      <c r="DN13" s="6"/>
+      <c r="DO13" s="6"/>
+      <c r="DP13" s="6"/>
+      <c r="DQ13" s="6"/>
+      <c r="DR13" s="6"/>
+      <c r="DS13" s="6"/>
+      <c r="DT13" s="6"/>
+      <c r="DU13" s="6"/>
+      <c r="DV13" s="6"/>
+      <c r="DW13" s="6"/>
+      <c r="DX13" s="6"/>
+      <c r="DY13" s="6"/>
+      <c r="DZ13" s="6"/>
+      <c r="EA13" s="6"/>
+      <c r="EB13" s="6"/>
+      <c r="EC13" s="6"/>
+      <c r="ED13" s="6"/>
+      <c r="EE13" s="6"/>
+      <c r="EF13" s="6"/>
+      <c r="EG13" s="6"/>
+      <c r="EH13" s="6"/>
+      <c r="EI13" s="6"/>
+      <c r="EJ13" s="6"/>
+      <c r="EK13" s="6"/>
+      <c r="EL13" s="6"/>
+      <c r="EM13" s="7"/>
+      <c r="EN13" s="7"/>
+      <c r="EO13" s="7"/>
     </row>
-    <row r="14" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
       <c r="F14" s="5"/>
@@ -1738,40 +2127,40 @@
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="4"/>
+      <c r="Q14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
       <c r="AW14" s="7"/>
       <c r="AX14" s="6"/>
       <c r="AY14" s="6"/>
@@ -1784,48 +2173,87 @@
       <c r="BF14" s="6"/>
       <c r="BG14" s="7"/>
       <c r="BH14" s="7"/>
+      <c r="BL14" s="5"/>
       <c r="BM14" s="5"/>
       <c r="BN14" s="5"/>
       <c r="BO14" s="5"/>
       <c r="BP14" s="6"/>
-      <c r="BQ14" s="2"/>
-      <c r="BR14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="BS14" s="3"/>
-      <c r="BT14" s="3"/>
-      <c r="BU14" s="3"/>
-      <c r="BV14" s="3"/>
-      <c r="BW14" s="3"/>
-      <c r="BX14" s="3"/>
-      <c r="BY14" s="3"/>
-      <c r="BZ14" s="3"/>
-      <c r="CA14" s="3"/>
-      <c r="CB14" s="3"/>
-      <c r="CC14" s="3"/>
-      <c r="CD14" s="3"/>
-      <c r="CE14" s="3"/>
-      <c r="CF14" s="3"/>
-      <c r="CG14" s="3"/>
-      <c r="CH14" s="3"/>
-      <c r="CI14" s="3"/>
-      <c r="CJ14" s="3"/>
-      <c r="CK14" s="3"/>
-      <c r="CL14" s="3"/>
-      <c r="CM14" s="3"/>
-      <c r="CN14" s="3"/>
-      <c r="CO14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="CP14" s="3"/>
-      <c r="CQ14" s="4"/>
+      <c r="BQ14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR14" s="6"/>
+      <c r="BS14" s="6"/>
+      <c r="BT14" s="6"/>
+      <c r="BU14" s="6"/>
+      <c r="BV14" s="6"/>
+      <c r="BW14" s="6"/>
+      <c r="BX14" s="6"/>
+      <c r="BY14" s="6"/>
+      <c r="BZ14" s="6"/>
+      <c r="CA14" s="6"/>
+      <c r="CB14" s="6"/>
+      <c r="CC14" s="6"/>
+      <c r="CD14" s="6"/>
+      <c r="CE14" s="6"/>
+      <c r="CF14" s="6"/>
+      <c r="CG14" s="6"/>
+      <c r="CH14" s="6"/>
+      <c r="CI14" s="6"/>
+      <c r="CJ14" s="6"/>
+      <c r="CK14" s="6"/>
+      <c r="CL14" s="6"/>
+      <c r="CM14" s="6"/>
+      <c r="CN14" s="6"/>
+      <c r="CO14" s="6"/>
+      <c r="CP14" s="6"/>
+      <c r="CQ14" s="6"/>
       <c r="CR14" s="6"/>
       <c r="CS14" s="6"/>
       <c r="CT14" s="7"/>
       <c r="CU14" s="7"/>
       <c r="CV14" s="7"/>
+      <c r="CW14" s="6"/>
+      <c r="CX14" s="7"/>
+      <c r="DF14" s="5"/>
+      <c r="DG14" s="5"/>
+      <c r="DH14" s="5"/>
+      <c r="DI14" s="6"/>
+      <c r="DJ14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="DK14" s="6"/>
+      <c r="DL14" s="6"/>
+      <c r="DM14" s="6"/>
+      <c r="DN14" s="6"/>
+      <c r="DO14" s="6"/>
+      <c r="DP14" s="6"/>
+      <c r="DQ14" s="6"/>
+      <c r="DR14" s="6"/>
+      <c r="DS14" s="6"/>
+      <c r="DT14" s="6"/>
+      <c r="DU14" s="6"/>
+      <c r="DV14" s="6"/>
+      <c r="DW14" s="6"/>
+      <c r="DX14" s="6"/>
+      <c r="DY14" s="6"/>
+      <c r="DZ14" s="6"/>
+      <c r="EA14" s="6"/>
+      <c r="EB14" s="6"/>
+      <c r="EC14" s="6"/>
+      <c r="ED14" s="6"/>
+      <c r="EE14" s="6"/>
+      <c r="EF14" s="6"/>
+      <c r="EG14" s="6"/>
+      <c r="EH14" s="6"/>
+      <c r="EI14" s="6"/>
+      <c r="EJ14" s="6"/>
+      <c r="EK14" s="6"/>
+      <c r="EL14" s="6"/>
+      <c r="EM14" s="7"/>
+      <c r="EN14" s="7"/>
+      <c r="EO14" s="7"/>
     </row>
-    <row r="15" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
       <c r="F15" s="5"/>
@@ -1839,12 +2267,12 @@
       <c r="N15" s="5"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -1871,8 +2299,8 @@
       <c r="AR15" s="3"/>
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="7"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="4"/>
       <c r="AW15" s="7"/>
       <c r="AX15" s="6"/>
       <c r="AY15" s="6"/>
@@ -1885,15 +2313,16 @@
       <c r="BF15" s="6"/>
       <c r="BG15" s="7"/>
       <c r="BH15" s="7"/>
+      <c r="BL15" s="5"/>
       <c r="BM15" s="5"/>
       <c r="BN15" s="5"/>
       <c r="BO15" s="5"/>
       <c r="BP15" s="6"/>
-      <c r="BQ15" s="5"/>
-      <c r="BR15" s="2"/>
-      <c r="BS15" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="BQ15" s="2"/>
+      <c r="BR15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS15" s="3"/>
       <c r="BT15" s="3"/>
       <c r="BU15" s="3"/>
       <c r="BV15" s="3"/>
@@ -1914,17 +2343,61 @@
       <c r="CK15" s="3"/>
       <c r="CL15" s="3"/>
       <c r="CM15" s="3"/>
-      <c r="CN15" s="4"/>
-      <c r="CO15" s="6"/>
-      <c r="CP15" s="6"/>
-      <c r="CQ15" s="7"/>
+      <c r="CN15" s="3"/>
+      <c r="CO15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="CP15" s="3"/>
+      <c r="CQ15" s="4"/>
       <c r="CR15" s="6"/>
       <c r="CS15" s="6"/>
       <c r="CT15" s="7"/>
       <c r="CU15" s="7"/>
       <c r="CV15" s="7"/>
+      <c r="CW15" s="6"/>
+      <c r="CX15" s="7"/>
+      <c r="DF15" s="5"/>
+      <c r="DG15" s="5"/>
+      <c r="DH15" s="5"/>
+      <c r="DI15" s="6"/>
+      <c r="DJ15" s="2"/>
+      <c r="DK15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="DL15" s="3"/>
+      <c r="DM15" s="3"/>
+      <c r="DN15" s="3"/>
+      <c r="DO15" s="3"/>
+      <c r="DP15" s="3"/>
+      <c r="DQ15" s="3"/>
+      <c r="DR15" s="3"/>
+      <c r="DS15" s="3"/>
+      <c r="DT15" s="3"/>
+      <c r="DU15" s="3"/>
+      <c r="DV15" s="3"/>
+      <c r="DW15" s="3"/>
+      <c r="DX15" s="3"/>
+      <c r="DY15" s="3"/>
+      <c r="DZ15" s="3"/>
+      <c r="EA15" s="3"/>
+      <c r="EB15" s="3"/>
+      <c r="EC15" s="3"/>
+      <c r="ED15" s="3"/>
+      <c r="EE15" s="3"/>
+      <c r="EF15" s="3"/>
+      <c r="EG15" s="3"/>
+      <c r="EH15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="EI15" s="3"/>
+      <c r="EJ15" s="4"/>
+      <c r="EK15" s="6"/>
+      <c r="EL15" s="6"/>
+      <c r="EM15" s="7"/>
+      <c r="EN15" s="7"/>
+      <c r="EO15" s="7"/>
     </row>
-    <row r="16" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
       <c r="F16" s="5"/>
@@ -1941,36 +2414,36 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
-      <c r="AQ16" s="6"/>
-      <c r="AR16" s="6"/>
-      <c r="AS16" s="6"/>
-      <c r="AT16" s="6"/>
-      <c r="AU16" s="7"/>
+      <c r="T16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="4"/>
       <c r="AV16" s="7"/>
       <c r="AW16" s="7"/>
       <c r="AX16" s="6"/>
@@ -1984,36 +2457,37 @@
       <c r="BF16" s="6"/>
       <c r="BG16" s="7"/>
       <c r="BH16" s="7"/>
+      <c r="BL16" s="5"/>
       <c r="BM16" s="5"/>
       <c r="BN16" s="5"/>
       <c r="BO16" s="5"/>
       <c r="BP16" s="6"/>
       <c r="BQ16" s="5"/>
-      <c r="BR16" s="5"/>
-      <c r="BS16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BT16" s="6"/>
-      <c r="BU16" s="6"/>
-      <c r="BV16" s="6"/>
-      <c r="BW16" s="6"/>
-      <c r="BX16" s="6"/>
-      <c r="BY16" s="6"/>
-      <c r="BZ16" s="6"/>
-      <c r="CA16" s="6"/>
-      <c r="CB16" s="6"/>
-      <c r="CC16" s="6"/>
-      <c r="CD16" s="6"/>
-      <c r="CE16" s="6"/>
-      <c r="CF16" s="6"/>
-      <c r="CG16" s="6"/>
-      <c r="CH16" s="6"/>
-      <c r="CI16" s="6"/>
-      <c r="CJ16" s="6"/>
-      <c r="CK16" s="6"/>
-      <c r="CL16" s="6"/>
-      <c r="CM16" s="6"/>
-      <c r="CN16" s="7"/>
+      <c r="BR16" s="2"/>
+      <c r="BS16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BT16" s="3"/>
+      <c r="BU16" s="3"/>
+      <c r="BV16" s="3"/>
+      <c r="BW16" s="3"/>
+      <c r="BX16" s="3"/>
+      <c r="BY16" s="3"/>
+      <c r="BZ16" s="3"/>
+      <c r="CA16" s="3"/>
+      <c r="CB16" s="3"/>
+      <c r="CC16" s="3"/>
+      <c r="CD16" s="3"/>
+      <c r="CE16" s="3"/>
+      <c r="CF16" s="3"/>
+      <c r="CG16" s="3"/>
+      <c r="CH16" s="3"/>
+      <c r="CI16" s="3"/>
+      <c r="CJ16" s="3"/>
+      <c r="CK16" s="3"/>
+      <c r="CL16" s="3"/>
+      <c r="CM16" s="3"/>
+      <c r="CN16" s="4"/>
       <c r="CO16" s="6"/>
       <c r="CP16" s="6"/>
       <c r="CQ16" s="7"/>
@@ -2022,8 +2496,48 @@
       <c r="CT16" s="7"/>
       <c r="CU16" s="7"/>
       <c r="CV16" s="7"/>
+      <c r="CW16" s="6"/>
+      <c r="CX16" s="7"/>
+      <c r="DF16" s="5"/>
+      <c r="DG16" s="5"/>
+      <c r="DH16" s="5"/>
+      <c r="DI16" s="6"/>
+      <c r="DJ16" s="5"/>
+      <c r="DK16" s="2"/>
+      <c r="DL16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DM16" s="3"/>
+      <c r="DN16" s="3"/>
+      <c r="DO16" s="3"/>
+      <c r="DP16" s="3"/>
+      <c r="DQ16" s="3"/>
+      <c r="DR16" s="3"/>
+      <c r="DS16" s="3"/>
+      <c r="DT16" s="3"/>
+      <c r="DU16" s="3"/>
+      <c r="DV16" s="3"/>
+      <c r="DW16" s="3"/>
+      <c r="DX16" s="3"/>
+      <c r="DY16" s="3"/>
+      <c r="DZ16" s="3"/>
+      <c r="EA16" s="3"/>
+      <c r="EB16" s="3"/>
+      <c r="EC16" s="3"/>
+      <c r="ED16" s="3"/>
+      <c r="EE16" s="3"/>
+      <c r="EF16" s="3"/>
+      <c r="EG16" s="4"/>
+      <c r="EH16" s="6"/>
+      <c r="EI16" s="6"/>
+      <c r="EJ16" s="7"/>
+      <c r="EK16" s="6"/>
+      <c r="EL16" s="6"/>
+      <c r="EM16" s="7"/>
+      <c r="EN16" s="7"/>
+      <c r="EO16" s="7"/>
     </row>
-    <row r="17" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
       <c r="F17" s="5"/>
@@ -2041,34 +2555,34 @@
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="4"/>
+      <c r="U17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
       <c r="AU17" s="7"/>
       <c r="AV17" s="7"/>
       <c r="AW17" s="7"/>
@@ -2083,6 +2597,7 @@
       <c r="BF17" s="6"/>
       <c r="BG17" s="7"/>
       <c r="BH17" s="7"/>
+      <c r="BL17" s="5"/>
       <c r="BM17" s="5"/>
       <c r="BN17" s="5"/>
       <c r="BO17" s="5"/>
@@ -2090,7 +2605,7 @@
       <c r="BQ17" s="5"/>
       <c r="BR17" s="5"/>
       <c r="BS17" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BT17" s="6"/>
       <c r="BU17" s="6"/>
@@ -2121,8 +2636,48 @@
       <c r="CT17" s="7"/>
       <c r="CU17" s="7"/>
       <c r="CV17" s="7"/>
+      <c r="CW17" s="6"/>
+      <c r="CX17" s="7"/>
+      <c r="DF17" s="5"/>
+      <c r="DG17" s="5"/>
+      <c r="DH17" s="5"/>
+      <c r="DI17" s="6"/>
+      <c r="DJ17" s="5"/>
+      <c r="DK17" s="5"/>
+      <c r="DL17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="DM17" s="6"/>
+      <c r="DN17" s="6"/>
+      <c r="DO17" s="6"/>
+      <c r="DP17" s="6"/>
+      <c r="DQ17" s="6"/>
+      <c r="DR17" s="6"/>
+      <c r="DS17" s="6"/>
+      <c r="DT17" s="6"/>
+      <c r="DU17" s="6"/>
+      <c r="DV17" s="6"/>
+      <c r="DW17" s="6"/>
+      <c r="DX17" s="6"/>
+      <c r="DY17" s="6"/>
+      <c r="DZ17" s="6"/>
+      <c r="EA17" s="6"/>
+      <c r="EB17" s="6"/>
+      <c r="EC17" s="6"/>
+      <c r="ED17" s="6"/>
+      <c r="EE17" s="6"/>
+      <c r="EF17" s="6"/>
+      <c r="EG17" s="7"/>
+      <c r="EH17" s="6"/>
+      <c r="EI17" s="6"/>
+      <c r="EJ17" s="7"/>
+      <c r="EK17" s="6"/>
+      <c r="EL17" s="6"/>
+      <c r="EM17" s="7"/>
+      <c r="EN17" s="7"/>
+      <c r="EO17" s="7"/>
     </row>
-    <row r="18" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
       <c r="F18" s="5"/>
@@ -2140,12 +2695,12 @@
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="U18" s="2"/>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -2166,8 +2721,8 @@
       <c r="AP18" s="3"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="7"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="4"/>
       <c r="AU18" s="7"/>
       <c r="AV18" s="7"/>
       <c r="AW18" s="7"/>
@@ -2182,36 +2737,37 @@
       <c r="BF18" s="6"/>
       <c r="BG18" s="7"/>
       <c r="BH18" s="7"/>
+      <c r="BL18" s="5"/>
       <c r="BM18" s="5"/>
       <c r="BN18" s="5"/>
       <c r="BO18" s="5"/>
       <c r="BP18" s="6"/>
       <c r="BQ18" s="5"/>
-      <c r="BR18" s="8"/>
-      <c r="BS18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="BT18" s="9"/>
-      <c r="BU18" s="9"/>
-      <c r="BV18" s="9"/>
-      <c r="BW18" s="9"/>
-      <c r="BX18" s="9"/>
-      <c r="BY18" s="9"/>
-      <c r="BZ18" s="9"/>
-      <c r="CA18" s="9"/>
-      <c r="CB18" s="9"/>
-      <c r="CC18" s="9"/>
-      <c r="CD18" s="9"/>
-      <c r="CE18" s="9"/>
-      <c r="CF18" s="9"/>
-      <c r="CG18" s="9"/>
-      <c r="CH18" s="9"/>
-      <c r="CI18" s="9"/>
-      <c r="CJ18" s="9"/>
-      <c r="CK18" s="9"/>
-      <c r="CL18" s="9"/>
-      <c r="CM18" s="9"/>
-      <c r="CN18" s="10"/>
+      <c r="BR18" s="5"/>
+      <c r="BS18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BT18" s="6"/>
+      <c r="BU18" s="6"/>
+      <c r="BV18" s="6"/>
+      <c r="BW18" s="6"/>
+      <c r="BX18" s="6"/>
+      <c r="BY18" s="6"/>
+      <c r="BZ18" s="6"/>
+      <c r="CA18" s="6"/>
+      <c r="CB18" s="6"/>
+      <c r="CC18" s="6"/>
+      <c r="CD18" s="6"/>
+      <c r="CE18" s="6"/>
+      <c r="CF18" s="6"/>
+      <c r="CG18" s="6"/>
+      <c r="CH18" s="6"/>
+      <c r="CI18" s="6"/>
+      <c r="CJ18" s="6"/>
+      <c r="CK18" s="6"/>
+      <c r="CL18" s="6"/>
+      <c r="CM18" s="6"/>
+      <c r="CN18" s="7"/>
       <c r="CO18" s="6"/>
       <c r="CP18" s="6"/>
       <c r="CQ18" s="7"/>
@@ -2220,8 +2776,48 @@
       <c r="CT18" s="7"/>
       <c r="CU18" s="7"/>
       <c r="CV18" s="7"/>
+      <c r="CW18" s="6"/>
+      <c r="CX18" s="7"/>
+      <c r="DF18" s="5"/>
+      <c r="DG18" s="5"/>
+      <c r="DH18" s="5"/>
+      <c r="DI18" s="6"/>
+      <c r="DJ18" s="5"/>
+      <c r="DK18" s="5"/>
+      <c r="DL18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="DM18" s="6"/>
+      <c r="DN18" s="6"/>
+      <c r="DO18" s="6"/>
+      <c r="DP18" s="6"/>
+      <c r="DQ18" s="6"/>
+      <c r="DR18" s="6"/>
+      <c r="DS18" s="6"/>
+      <c r="DT18" s="6"/>
+      <c r="DU18" s="6"/>
+      <c r="DV18" s="6"/>
+      <c r="DW18" s="6"/>
+      <c r="DX18" s="6"/>
+      <c r="DY18" s="6"/>
+      <c r="DZ18" s="6"/>
+      <c r="EA18" s="6"/>
+      <c r="EB18" s="6"/>
+      <c r="EC18" s="6"/>
+      <c r="ED18" s="6"/>
+      <c r="EE18" s="6"/>
+      <c r="EF18" s="6"/>
+      <c r="EG18" s="7"/>
+      <c r="EH18" s="6"/>
+      <c r="EI18" s="6"/>
+      <c r="EJ18" s="7"/>
+      <c r="EK18" s="6"/>
+      <c r="EL18" s="6"/>
+      <c r="EM18" s="7"/>
+      <c r="EN18" s="7"/>
+      <c r="EO18" s="7"/>
     </row>
-    <row r="19" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
       <c r="F19" s="5"/>
@@ -2241,31 +2837,31 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="6"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="9"/>
-      <c r="AL19" s="9"/>
-      <c r="AM19" s="9"/>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="9"/>
-      <c r="AP19" s="9"/>
-      <c r="AQ19" s="9"/>
-      <c r="AR19" s="9"/>
-      <c r="AS19" s="10"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="4"/>
       <c r="AT19" s="7"/>
       <c r="AU19" s="7"/>
       <c r="AV19" s="7"/>
@@ -2281,34 +2877,37 @@
       <c r="BF19" s="6"/>
       <c r="BG19" s="7"/>
       <c r="BH19" s="7"/>
+      <c r="BL19" s="5"/>
       <c r="BM19" s="5"/>
       <c r="BN19" s="5"/>
       <c r="BO19" s="5"/>
       <c r="BP19" s="6"/>
       <c r="BQ19" s="5"/>
-      <c r="BR19" s="6"/>
-      <c r="BS19" s="6"/>
-      <c r="BT19" s="6"/>
-      <c r="BU19" s="6"/>
-      <c r="BV19" s="6"/>
-      <c r="BW19" s="6"/>
-      <c r="BX19" s="6"/>
-      <c r="BY19" s="6"/>
-      <c r="BZ19" s="6"/>
-      <c r="CA19" s="6"/>
-      <c r="CB19" s="6"/>
-      <c r="CC19" s="6"/>
-      <c r="CD19" s="6"/>
-      <c r="CE19" s="6"/>
-      <c r="CF19" s="6"/>
-      <c r="CG19" s="6"/>
-      <c r="CH19" s="6"/>
-      <c r="CI19" s="6"/>
-      <c r="CJ19" s="6"/>
-      <c r="CK19" s="6"/>
-      <c r="CL19" s="6"/>
-      <c r="CM19" s="6"/>
-      <c r="CN19" s="6"/>
+      <c r="BR19" s="8"/>
+      <c r="BS19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BT19" s="9"/>
+      <c r="BU19" s="9"/>
+      <c r="BV19" s="9"/>
+      <c r="BW19" s="9"/>
+      <c r="BX19" s="9"/>
+      <c r="BY19" s="9"/>
+      <c r="BZ19" s="9"/>
+      <c r="CA19" s="9"/>
+      <c r="CB19" s="9"/>
+      <c r="CC19" s="9"/>
+      <c r="CD19" s="9"/>
+      <c r="CE19" s="9"/>
+      <c r="CF19" s="9"/>
+      <c r="CG19" s="9"/>
+      <c r="CH19" s="9"/>
+      <c r="CI19" s="9"/>
+      <c r="CJ19" s="9"/>
+      <c r="CK19" s="9"/>
+      <c r="CL19" s="9"/>
+      <c r="CM19" s="9"/>
+      <c r="CN19" s="10"/>
       <c r="CO19" s="6"/>
       <c r="CP19" s="6"/>
       <c r="CQ19" s="7"/>
@@ -2317,8 +2916,48 @@
       <c r="CT19" s="7"/>
       <c r="CU19" s="7"/>
       <c r="CV19" s="7"/>
+      <c r="CW19" s="6"/>
+      <c r="CX19" s="7"/>
+      <c r="DF19" s="5"/>
+      <c r="DG19" s="5"/>
+      <c r="DH19" s="5"/>
+      <c r="DI19" s="6"/>
+      <c r="DJ19" s="5"/>
+      <c r="DK19" s="8"/>
+      <c r="DL19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DM19" s="9"/>
+      <c r="DN19" s="9"/>
+      <c r="DO19" s="9"/>
+      <c r="DP19" s="9"/>
+      <c r="DQ19" s="9"/>
+      <c r="DR19" s="9"/>
+      <c r="DS19" s="9"/>
+      <c r="DT19" s="9"/>
+      <c r="DU19" s="9"/>
+      <c r="DV19" s="9"/>
+      <c r="DW19" s="9"/>
+      <c r="DX19" s="9"/>
+      <c r="DY19" s="9"/>
+      <c r="DZ19" s="9"/>
+      <c r="EA19" s="9"/>
+      <c r="EB19" s="9"/>
+      <c r="EC19" s="9"/>
+      <c r="ED19" s="9"/>
+      <c r="EE19" s="9"/>
+      <c r="EF19" s="9"/>
+      <c r="EG19" s="10"/>
+      <c r="EH19" s="6"/>
+      <c r="EI19" s="6"/>
+      <c r="EJ19" s="7"/>
+      <c r="EK19" s="6"/>
+      <c r="EL19" s="6"/>
+      <c r="EM19" s="7"/>
+      <c r="EN19" s="7"/>
+      <c r="EO19" s="7"/>
     </row>
-    <row r="20" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
       <c r="F20" s="5"/>
@@ -2338,29 +2977,31 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
-      <c r="AQ20" s="6"/>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="6"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="10"/>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
       <c r="AV20" s="7"/>
@@ -2376,15 +3017,14 @@
       <c r="BF20" s="6"/>
       <c r="BG20" s="7"/>
       <c r="BH20" s="7"/>
+      <c r="BL20" s="5"/>
       <c r="BM20" s="5"/>
       <c r="BN20" s="5"/>
       <c r="BO20" s="5"/>
       <c r="BP20" s="6"/>
       <c r="BQ20" s="5"/>
       <c r="BR20" s="6"/>
-      <c r="BS20" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="BS20" s="6"/>
       <c r="BT20" s="6"/>
       <c r="BU20" s="6"/>
       <c r="BV20" s="6"/>
@@ -2414,8 +3054,46 @@
       <c r="CT20" s="7"/>
       <c r="CU20" s="7"/>
       <c r="CV20" s="7"/>
+      <c r="CW20" s="6"/>
+      <c r="CX20" s="7"/>
+      <c r="DF20" s="5"/>
+      <c r="DG20" s="5"/>
+      <c r="DH20" s="5"/>
+      <c r="DI20" s="6"/>
+      <c r="DJ20" s="5"/>
+      <c r="DK20" s="6"/>
+      <c r="DL20" s="6"/>
+      <c r="DM20" s="6"/>
+      <c r="DN20" s="6"/>
+      <c r="DO20" s="6"/>
+      <c r="DP20" s="6"/>
+      <c r="DQ20" s="6"/>
+      <c r="DR20" s="6"/>
+      <c r="DS20" s="6"/>
+      <c r="DT20" s="6"/>
+      <c r="DU20" s="6"/>
+      <c r="DV20" s="6"/>
+      <c r="DW20" s="6"/>
+      <c r="DX20" s="6"/>
+      <c r="DY20" s="6"/>
+      <c r="DZ20" s="6"/>
+      <c r="EA20" s="6"/>
+      <c r="EB20" s="6"/>
+      <c r="EC20" s="6"/>
+      <c r="ED20" s="6"/>
+      <c r="EE20" s="6"/>
+      <c r="EF20" s="6"/>
+      <c r="EG20" s="6"/>
+      <c r="EH20" s="6"/>
+      <c r="EI20" s="6"/>
+      <c r="EJ20" s="7"/>
+      <c r="EK20" s="6"/>
+      <c r="EL20" s="6"/>
+      <c r="EM20" s="7"/>
+      <c r="EN20" s="7"/>
+      <c r="EO20" s="7"/>
     </row>
-    <row r="21" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
       <c r="F21" s="5"/>
@@ -2433,32 +3111,32 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-      <c r="AQ21" s="9"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="9"/>
-      <c r="AT21" s="10"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="6"/>
+      <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
       <c r="AV21" s="7"/>
       <c r="AW21" s="7"/>
@@ -2473,13 +3151,16 @@
       <c r="BF21" s="6"/>
       <c r="BG21" s="7"/>
       <c r="BH21" s="7"/>
+      <c r="BL21" s="5"/>
       <c r="BM21" s="5"/>
       <c r="BN21" s="5"/>
       <c r="BO21" s="5"/>
       <c r="BP21" s="6"/>
       <c r="BQ21" s="5"/>
       <c r="BR21" s="6"/>
-      <c r="BS21" s="6"/>
+      <c r="BS21" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="BT21" s="6"/>
       <c r="BU21" s="6"/>
       <c r="BV21" s="6"/>
@@ -2509,8 +3190,48 @@
       <c r="CT21" s="7"/>
       <c r="CU21" s="7"/>
       <c r="CV21" s="7"/>
+      <c r="CW21" s="6"/>
+      <c r="CX21" s="7"/>
+      <c r="DF21" s="5"/>
+      <c r="DG21" s="5"/>
+      <c r="DH21" s="5"/>
+      <c r="DI21" s="6"/>
+      <c r="DJ21" s="5"/>
+      <c r="DK21" s="6"/>
+      <c r="DL21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="DM21" s="6"/>
+      <c r="DN21" s="6"/>
+      <c r="DO21" s="6"/>
+      <c r="DP21" s="6"/>
+      <c r="DQ21" s="6"/>
+      <c r="DR21" s="6"/>
+      <c r="DS21" s="6"/>
+      <c r="DT21" s="6"/>
+      <c r="DU21" s="6"/>
+      <c r="DV21" s="6"/>
+      <c r="DW21" s="6"/>
+      <c r="DX21" s="6"/>
+      <c r="DY21" s="6"/>
+      <c r="DZ21" s="6"/>
+      <c r="EA21" s="6"/>
+      <c r="EB21" s="6"/>
+      <c r="EC21" s="6"/>
+      <c r="ED21" s="6"/>
+      <c r="EE21" s="6"/>
+      <c r="EF21" s="6"/>
+      <c r="EG21" s="6"/>
+      <c r="EH21" s="6"/>
+      <c r="EI21" s="6"/>
+      <c r="EJ21" s="7"/>
+      <c r="EK21" s="6"/>
+      <c r="EL21" s="6"/>
+      <c r="EM21" s="7"/>
+      <c r="EN21" s="7"/>
+      <c r="EO21" s="7"/>
     </row>
-    <row r="22" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
       <c r="F22" s="5"/>
@@ -2527,8 +3248,8 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="9"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="8"/>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
@@ -2553,8 +3274,8 @@
       <c r="AQ22" s="9"/>
       <c r="AR22" s="9"/>
       <c r="AS22" s="9"/>
-      <c r="AT22" s="9"/>
-      <c r="AU22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="7"/>
       <c r="AV22" s="7"/>
       <c r="AW22" s="7"/>
       <c r="AX22" s="6"/>
@@ -2568,6 +3289,7 @@
       <c r="BF22" s="6"/>
       <c r="BG22" s="7"/>
       <c r="BH22" s="7"/>
+      <c r="BL22" s="5"/>
       <c r="BM22" s="5"/>
       <c r="BN22" s="5"/>
       <c r="BO22" s="5"/>
@@ -2604,8 +3326,46 @@
       <c r="CT22" s="7"/>
       <c r="CU22" s="7"/>
       <c r="CV22" s="7"/>
+      <c r="CW22" s="6"/>
+      <c r="CX22" s="7"/>
+      <c r="DF22" s="5"/>
+      <c r="DG22" s="5"/>
+      <c r="DH22" s="5"/>
+      <c r="DI22" s="6"/>
+      <c r="DJ22" s="5"/>
+      <c r="DK22" s="6"/>
+      <c r="DL22" s="6"/>
+      <c r="DM22" s="6"/>
+      <c r="DN22" s="6"/>
+      <c r="DO22" s="6"/>
+      <c r="DP22" s="6"/>
+      <c r="DQ22" s="6"/>
+      <c r="DR22" s="6"/>
+      <c r="DS22" s="6"/>
+      <c r="DT22" s="6"/>
+      <c r="DU22" s="6"/>
+      <c r="DV22" s="6"/>
+      <c r="DW22" s="6"/>
+      <c r="DX22" s="6"/>
+      <c r="DY22" s="6"/>
+      <c r="DZ22" s="6"/>
+      <c r="EA22" s="6"/>
+      <c r="EB22" s="6"/>
+      <c r="EC22" s="6"/>
+      <c r="ED22" s="6"/>
+      <c r="EE22" s="6"/>
+      <c r="EF22" s="6"/>
+      <c r="EG22" s="6"/>
+      <c r="EH22" s="6"/>
+      <c r="EI22" s="6"/>
+      <c r="EJ22" s="7"/>
+      <c r="EK22" s="6"/>
+      <c r="EL22" s="6"/>
+      <c r="EM22" s="7"/>
+      <c r="EN22" s="7"/>
+      <c r="EO22" s="7"/>
     </row>
-    <row r="23" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
       <c r="F23" s="5"/>
@@ -2619,10 +3379,10 @@
       <c r="N23" s="5"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="8"/>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
@@ -2649,8 +3409,8 @@
       <c r="AR23" s="9"/>
       <c r="AS23" s="9"/>
       <c r="AT23" s="9"/>
-      <c r="AU23" s="9"/>
-      <c r="AV23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="7"/>
       <c r="AW23" s="7"/>
       <c r="AX23" s="6"/>
       <c r="AY23" s="6"/>
@@ -2663,6 +3423,7 @@
       <c r="BF23" s="6"/>
       <c r="BG23" s="7"/>
       <c r="BH23" s="7"/>
+      <c r="BL23" s="5"/>
       <c r="BM23" s="5"/>
       <c r="BN23" s="5"/>
       <c r="BO23" s="5"/>
@@ -2699,8 +3460,46 @@
       <c r="CT23" s="7"/>
       <c r="CU23" s="7"/>
       <c r="CV23" s="7"/>
+      <c r="CW23" s="6"/>
+      <c r="CX23" s="7"/>
+      <c r="DF23" s="5"/>
+      <c r="DG23" s="5"/>
+      <c r="DH23" s="5"/>
+      <c r="DI23" s="6"/>
+      <c r="DJ23" s="5"/>
+      <c r="DK23" s="6"/>
+      <c r="DL23" s="6"/>
+      <c r="DM23" s="6"/>
+      <c r="DN23" s="6"/>
+      <c r="DO23" s="6"/>
+      <c r="DP23" s="6"/>
+      <c r="DQ23" s="6"/>
+      <c r="DR23" s="6"/>
+      <c r="DS23" s="6"/>
+      <c r="DT23" s="6"/>
+      <c r="DU23" s="6"/>
+      <c r="DV23" s="6"/>
+      <c r="DW23" s="6"/>
+      <c r="DX23" s="6"/>
+      <c r="DY23" s="6"/>
+      <c r="DZ23" s="6"/>
+      <c r="EA23" s="6"/>
+      <c r="EB23" s="6"/>
+      <c r="EC23" s="6"/>
+      <c r="ED23" s="6"/>
+      <c r="EE23" s="6"/>
+      <c r="EF23" s="6"/>
+      <c r="EG23" s="6"/>
+      <c r="EH23" s="6"/>
+      <c r="EI23" s="6"/>
+      <c r="EJ23" s="7"/>
+      <c r="EK23" s="6"/>
+      <c r="EL23" s="6"/>
+      <c r="EM23" s="7"/>
+      <c r="EN23" s="7"/>
+      <c r="EO23" s="7"/>
     </row>
-    <row r="24" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
       <c r="F24" s="5"/>
@@ -2714,38 +3513,38 @@
       <c r="N24" s="5"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6"/>
-      <c r="AK24" s="6"/>
-      <c r="AL24" s="6"/>
-      <c r="AM24" s="6"/>
-      <c r="AN24" s="6"/>
-      <c r="AO24" s="6"/>
-      <c r="AP24" s="6"/>
-      <c r="AQ24" s="6"/>
-      <c r="AR24" s="6"/>
-      <c r="AS24" s="6"/>
-      <c r="AT24" s="6"/>
-      <c r="AU24" s="6"/>
-      <c r="AV24" s="6"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="9"/>
+      <c r="AQ24" s="9"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="9"/>
+      <c r="AT24" s="9"/>
+      <c r="AU24" s="9"/>
+      <c r="AV24" s="10"/>
       <c r="AW24" s="7"/>
       <c r="AX24" s="6"/>
       <c r="AY24" s="6"/>
@@ -2758,44 +3557,83 @@
       <c r="BF24" s="6"/>
       <c r="BG24" s="7"/>
       <c r="BH24" s="7"/>
+      <c r="BL24" s="5"/>
       <c r="BM24" s="5"/>
       <c r="BN24" s="5"/>
       <c r="BO24" s="5"/>
       <c r="BP24" s="6"/>
-      <c r="BQ24" s="8"/>
-      <c r="BR24" s="9"/>
-      <c r="BS24" s="9"/>
-      <c r="BT24" s="9"/>
-      <c r="BU24" s="9"/>
-      <c r="BV24" s="9"/>
-      <c r="BW24" s="9"/>
-      <c r="BX24" s="9"/>
-      <c r="BY24" s="9"/>
-      <c r="BZ24" s="9"/>
-      <c r="CA24" s="9"/>
-      <c r="CB24" s="9"/>
-      <c r="CC24" s="9"/>
-      <c r="CD24" s="9"/>
-      <c r="CE24" s="9"/>
-      <c r="CF24" s="9"/>
-      <c r="CG24" s="9"/>
-      <c r="CH24" s="9"/>
-      <c r="CI24" s="9"/>
-      <c r="CJ24" s="9"/>
-      <c r="CK24" s="9"/>
-      <c r="CL24" s="9"/>
-      <c r="CM24" s="9"/>
-      <c r="CN24" s="9"/>
-      <c r="CO24" s="9"/>
-      <c r="CP24" s="9"/>
-      <c r="CQ24" s="10"/>
+      <c r="BQ24" s="5"/>
+      <c r="BR24" s="6"/>
+      <c r="BS24" s="6"/>
+      <c r="BT24" s="6"/>
+      <c r="BU24" s="6"/>
+      <c r="BV24" s="6"/>
+      <c r="BW24" s="6"/>
+      <c r="BX24" s="6"/>
+      <c r="BY24" s="6"/>
+      <c r="BZ24" s="6"/>
+      <c r="CA24" s="6"/>
+      <c r="CB24" s="6"/>
+      <c r="CC24" s="6"/>
+      <c r="CD24" s="6"/>
+      <c r="CE24" s="6"/>
+      <c r="CF24" s="6"/>
+      <c r="CG24" s="6"/>
+      <c r="CH24" s="6"/>
+      <c r="CI24" s="6"/>
+      <c r="CJ24" s="6"/>
+      <c r="CK24" s="6"/>
+      <c r="CL24" s="6"/>
+      <c r="CM24" s="6"/>
+      <c r="CN24" s="6"/>
+      <c r="CO24" s="6"/>
+      <c r="CP24" s="6"/>
+      <c r="CQ24" s="7"/>
       <c r="CR24" s="6"/>
       <c r="CS24" s="6"/>
       <c r="CT24" s="7"/>
       <c r="CU24" s="7"/>
       <c r="CV24" s="7"/>
+      <c r="CW24" s="6"/>
+      <c r="CX24" s="7"/>
+      <c r="DF24" s="5"/>
+      <c r="DG24" s="5"/>
+      <c r="DH24" s="5"/>
+      <c r="DI24" s="6"/>
+      <c r="DJ24" s="5"/>
+      <c r="DK24" s="6"/>
+      <c r="DL24" s="6"/>
+      <c r="DM24" s="6"/>
+      <c r="DN24" s="6"/>
+      <c r="DO24" s="6"/>
+      <c r="DP24" s="6"/>
+      <c r="DQ24" s="6"/>
+      <c r="DR24" s="6"/>
+      <c r="DS24" s="6"/>
+      <c r="DT24" s="6"/>
+      <c r="DU24" s="6"/>
+      <c r="DV24" s="6"/>
+      <c r="DW24" s="6"/>
+      <c r="DX24" s="6"/>
+      <c r="DY24" s="6"/>
+      <c r="DZ24" s="6"/>
+      <c r="EA24" s="6"/>
+      <c r="EB24" s="6"/>
+      <c r="EC24" s="6"/>
+      <c r="ED24" s="6"/>
+      <c r="EE24" s="6"/>
+      <c r="EF24" s="6"/>
+      <c r="EG24" s="6"/>
+      <c r="EH24" s="6"/>
+      <c r="EI24" s="6"/>
+      <c r="EJ24" s="7"/>
+      <c r="EK24" s="6"/>
+      <c r="EL24" s="6"/>
+      <c r="EM24" s="7"/>
+      <c r="EN24" s="7"/>
+      <c r="EO24" s="7"/>
     </row>
-    <row r="25" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
       <c r="F25" s="5"/>
@@ -2809,9 +3647,7 @@
       <c r="N25" s="5"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
@@ -2855,11 +3691,12 @@
       <c r="BF25" s="6"/>
       <c r="BG25" s="7"/>
       <c r="BH25" s="7"/>
+      <c r="BL25" s="5"/>
       <c r="BM25" s="5"/>
       <c r="BN25" s="5"/>
-      <c r="BO25" s="8"/>
-      <c r="BP25" s="9"/>
-      <c r="BQ25" s="9"/>
+      <c r="BO25" s="5"/>
+      <c r="BP25" s="6"/>
+      <c r="BQ25" s="8"/>
       <c r="BR25" s="9"/>
       <c r="BS25" s="9"/>
       <c r="BT25" s="9"/>
@@ -2885,14 +3722,52 @@
       <c r="CN25" s="9"/>
       <c r="CO25" s="9"/>
       <c r="CP25" s="9"/>
-      <c r="CQ25" s="9"/>
-      <c r="CR25" s="9"/>
-      <c r="CS25" s="9"/>
-      <c r="CT25" s="10"/>
+      <c r="CQ25" s="10"/>
+      <c r="CR25" s="6"/>
+      <c r="CS25" s="6"/>
+      <c r="CT25" s="7"/>
       <c r="CU25" s="7"/>
       <c r="CV25" s="7"/>
+      <c r="CW25" s="6"/>
+      <c r="CX25" s="7"/>
+      <c r="DF25" s="5"/>
+      <c r="DG25" s="5"/>
+      <c r="DH25" s="5"/>
+      <c r="DI25" s="6"/>
+      <c r="DJ25" s="8"/>
+      <c r="DK25" s="9"/>
+      <c r="DL25" s="9"/>
+      <c r="DM25" s="9"/>
+      <c r="DN25" s="9"/>
+      <c r="DO25" s="9"/>
+      <c r="DP25" s="9"/>
+      <c r="DQ25" s="9"/>
+      <c r="DR25" s="9"/>
+      <c r="DS25" s="9"/>
+      <c r="DT25" s="9"/>
+      <c r="DU25" s="9"/>
+      <c r="DV25" s="9"/>
+      <c r="DW25" s="9"/>
+      <c r="DX25" s="9"/>
+      <c r="DY25" s="9"/>
+      <c r="DZ25" s="9"/>
+      <c r="EA25" s="9"/>
+      <c r="EB25" s="9"/>
+      <c r="EC25" s="9"/>
+      <c r="ED25" s="9"/>
+      <c r="EE25" s="9"/>
+      <c r="EF25" s="9"/>
+      <c r="EG25" s="9"/>
+      <c r="EH25" s="9"/>
+      <c r="EI25" s="9"/>
+      <c r="EJ25" s="10"/>
+      <c r="EK25" s="6"/>
+      <c r="EL25" s="6"/>
+      <c r="EM25" s="7"/>
+      <c r="EN25" s="7"/>
+      <c r="EO25" s="7"/>
     </row>
-    <row r="26" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
       <c r="F26" s="5"/>
@@ -2903,42 +3778,44 @@
       <c r="K26" s="5"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="9"/>
-      <c r="AQ26" s="9"/>
-      <c r="AR26" s="9"/>
-      <c r="AS26" s="9"/>
-      <c r="AT26" s="9"/>
-      <c r="AU26" s="9"/>
-      <c r="AV26" s="9"/>
-      <c r="AW26" s="10"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="6"/>
+      <c r="AT26" s="6"/>
+      <c r="AU26" s="6"/>
+      <c r="AV26" s="6"/>
+      <c r="AW26" s="7"/>
       <c r="AX26" s="6"/>
       <c r="AY26" s="6"/>
       <c r="AZ26" s="7"/>
@@ -2950,9 +3827,10 @@
       <c r="BF26" s="6"/>
       <c r="BG26" s="7"/>
       <c r="BH26" s="7"/>
+      <c r="BL26" s="5"/>
       <c r="BM26" s="5"/>
-      <c r="BN26" s="8"/>
-      <c r="BO26" s="9"/>
+      <c r="BN26" s="5"/>
+      <c r="BO26" s="8"/>
       <c r="BP26" s="9"/>
       <c r="BQ26" s="9"/>
       <c r="BR26" s="9"/>
@@ -2983,11 +3861,49 @@
       <c r="CQ26" s="9"/>
       <c r="CR26" s="9"/>
       <c r="CS26" s="9"/>
-      <c r="CT26" s="9"/>
-      <c r="CU26" s="10"/>
+      <c r="CT26" s="10"/>
+      <c r="CU26" s="7"/>
       <c r="CV26" s="7"/>
+      <c r="CW26" s="6"/>
+      <c r="CX26" s="7"/>
+      <c r="DF26" s="5"/>
+      <c r="DG26" s="5"/>
+      <c r="DH26" s="8"/>
+      <c r="DI26" s="9"/>
+      <c r="DJ26" s="9"/>
+      <c r="DK26" s="9"/>
+      <c r="DL26" s="9"/>
+      <c r="DM26" s="9"/>
+      <c r="DN26" s="9"/>
+      <c r="DO26" s="9"/>
+      <c r="DP26" s="9"/>
+      <c r="DQ26" s="9"/>
+      <c r="DR26" s="9"/>
+      <c r="DS26" s="9"/>
+      <c r="DT26" s="9"/>
+      <c r="DU26" s="9"/>
+      <c r="DV26" s="9"/>
+      <c r="DW26" s="9"/>
+      <c r="DX26" s="9"/>
+      <c r="DY26" s="9"/>
+      <c r="DZ26" s="9"/>
+      <c r="EA26" s="9"/>
+      <c r="EB26" s="9"/>
+      <c r="EC26" s="9"/>
+      <c r="ED26" s="9"/>
+      <c r="EE26" s="9"/>
+      <c r="EF26" s="9"/>
+      <c r="EG26" s="9"/>
+      <c r="EH26" s="9"/>
+      <c r="EI26" s="9"/>
+      <c r="EJ26" s="9"/>
+      <c r="EK26" s="9"/>
+      <c r="EL26" s="9"/>
+      <c r="EM26" s="10"/>
+      <c r="EN26" s="7"/>
+      <c r="EO26" s="7"/>
     </row>
-    <row r="27" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
       <c r="F27" s="5"/>
@@ -2998,42 +3914,42 @@
       <c r="K27" s="5"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="6"/>
-      <c r="AK27" s="6"/>
-      <c r="AL27" s="6"/>
-      <c r="AM27" s="6"/>
-      <c r="AN27" s="6"/>
-      <c r="AO27" s="6"/>
-      <c r="AP27" s="6"/>
-      <c r="AQ27" s="6"/>
-      <c r="AR27" s="6"/>
-      <c r="AS27" s="6"/>
-      <c r="AT27" s="6"/>
-      <c r="AU27" s="6"/>
-      <c r="AV27" s="6"/>
-      <c r="AW27" s="6"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="9"/>
+      <c r="AM27" s="9"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="9"/>
+      <c r="AQ27" s="9"/>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="9"/>
+      <c r="AT27" s="9"/>
+      <c r="AU27" s="9"/>
+      <c r="AV27" s="9"/>
+      <c r="AW27" s="10"/>
       <c r="AX27" s="6"/>
       <c r="AY27" s="6"/>
       <c r="AZ27" s="7"/>
@@ -3045,8 +3961,9 @@
       <c r="BF27" s="6"/>
       <c r="BG27" s="7"/>
       <c r="BH27" s="7"/>
-      <c r="BM27" s="8"/>
-      <c r="BN27" s="9"/>
+      <c r="BL27" s="5"/>
+      <c r="BM27" s="5"/>
+      <c r="BN27" s="8"/>
       <c r="BO27" s="9"/>
       <c r="BP27" s="9"/>
       <c r="BQ27" s="9"/>
@@ -3079,10 +3996,48 @@
       <c r="CR27" s="9"/>
       <c r="CS27" s="9"/>
       <c r="CT27" s="9"/>
-      <c r="CU27" s="9"/>
-      <c r="CV27" s="10"/>
+      <c r="CU27" s="10"/>
+      <c r="CV27" s="7"/>
+      <c r="CW27" s="6"/>
+      <c r="CX27" s="7"/>
+      <c r="DF27" s="5"/>
+      <c r="DG27" s="8"/>
+      <c r="DH27" s="9"/>
+      <c r="DI27" s="9"/>
+      <c r="DJ27" s="9"/>
+      <c r="DK27" s="9"/>
+      <c r="DL27" s="9"/>
+      <c r="DM27" s="9"/>
+      <c r="DN27" s="9"/>
+      <c r="DO27" s="9"/>
+      <c r="DP27" s="9"/>
+      <c r="DQ27" s="9"/>
+      <c r="DR27" s="9"/>
+      <c r="DS27" s="9"/>
+      <c r="DT27" s="9"/>
+      <c r="DU27" s="9"/>
+      <c r="DV27" s="9"/>
+      <c r="DW27" s="9"/>
+      <c r="DX27" s="9"/>
+      <c r="DY27" s="9"/>
+      <c r="DZ27" s="9"/>
+      <c r="EA27" s="9"/>
+      <c r="EB27" s="9"/>
+      <c r="EC27" s="9"/>
+      <c r="ED27" s="9"/>
+      <c r="EE27" s="9"/>
+      <c r="EF27" s="9"/>
+      <c r="EG27" s="9"/>
+      <c r="EH27" s="9"/>
+      <c r="EI27" s="9"/>
+      <c r="EJ27" s="9"/>
+      <c r="EK27" s="9"/>
+      <c r="EL27" s="9"/>
+      <c r="EM27" s="9"/>
+      <c r="EN27" s="10"/>
+      <c r="EO27" s="7"/>
     </row>
-    <row r="28" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
       <c r="F28" s="5"/>
@@ -3093,18 +4048,14 @@
       <c r="K28" s="5"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
-      <c r="U28" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
@@ -3144,44 +4095,83 @@
       <c r="BF28" s="6"/>
       <c r="BG28" s="7"/>
       <c r="BH28" s="7"/>
-      <c r="BM28" s="6"/>
-      <c r="BN28" s="6"/>
-      <c r="BO28" s="6"/>
-      <c r="BP28" s="6"/>
-      <c r="BQ28" s="6"/>
-      <c r="BR28" s="6"/>
-      <c r="BS28" s="6"/>
-      <c r="BT28" s="6"/>
-      <c r="BU28" s="6"/>
-      <c r="BV28" s="6"/>
-      <c r="BW28" s="6"/>
-      <c r="BX28" s="6"/>
-      <c r="BY28" s="6"/>
-      <c r="BZ28" s="6"/>
-      <c r="CA28" s="6"/>
-      <c r="CB28" s="6"/>
-      <c r="CC28" s="6"/>
-      <c r="CD28" s="6"/>
-      <c r="CE28" s="6"/>
-      <c r="CF28" s="6"/>
-      <c r="CG28" s="6"/>
-      <c r="CH28" s="6"/>
-      <c r="CI28" s="6"/>
-      <c r="CJ28" s="6"/>
-      <c r="CK28" s="6"/>
-      <c r="CL28" s="6"/>
-      <c r="CM28" s="6"/>
-      <c r="CN28" s="6"/>
-      <c r="CO28" s="6"/>
-      <c r="CP28" s="6"/>
-      <c r="CQ28" s="6"/>
-      <c r="CR28" s="6"/>
-      <c r="CS28" s="6"/>
-      <c r="CT28" s="6"/>
-      <c r="CU28" s="6"/>
-      <c r="CV28" s="6"/>
+      <c r="BL28" s="5"/>
+      <c r="BM28" s="8"/>
+      <c r="BN28" s="9"/>
+      <c r="BO28" s="9"/>
+      <c r="BP28" s="9"/>
+      <c r="BQ28" s="9"/>
+      <c r="BR28" s="9"/>
+      <c r="BS28" s="9"/>
+      <c r="BT28" s="9"/>
+      <c r="BU28" s="9"/>
+      <c r="BV28" s="9"/>
+      <c r="BW28" s="9"/>
+      <c r="BX28" s="9"/>
+      <c r="BY28" s="9"/>
+      <c r="BZ28" s="9"/>
+      <c r="CA28" s="9"/>
+      <c r="CB28" s="9"/>
+      <c r="CC28" s="9"/>
+      <c r="CD28" s="9"/>
+      <c r="CE28" s="9"/>
+      <c r="CF28" s="9"/>
+      <c r="CG28" s="9"/>
+      <c r="CH28" s="9"/>
+      <c r="CI28" s="9"/>
+      <c r="CJ28" s="9"/>
+      <c r="CK28" s="9"/>
+      <c r="CL28" s="9"/>
+      <c r="CM28" s="9"/>
+      <c r="CN28" s="9"/>
+      <c r="CO28" s="9"/>
+      <c r="CP28" s="9"/>
+      <c r="CQ28" s="9"/>
+      <c r="CR28" s="9"/>
+      <c r="CS28" s="9"/>
+      <c r="CT28" s="9"/>
+      <c r="CU28" s="9"/>
+      <c r="CV28" s="10"/>
+      <c r="CW28" s="6"/>
+      <c r="CX28" s="7"/>
+      <c r="DF28" s="8"/>
+      <c r="DG28" s="9"/>
+      <c r="DH28" s="9"/>
+      <c r="DI28" s="9"/>
+      <c r="DJ28" s="9"/>
+      <c r="DK28" s="9"/>
+      <c r="DL28" s="9"/>
+      <c r="DM28" s="9"/>
+      <c r="DN28" s="9"/>
+      <c r="DO28" s="9"/>
+      <c r="DP28" s="9"/>
+      <c r="DQ28" s="9"/>
+      <c r="DR28" s="9"/>
+      <c r="DS28" s="9"/>
+      <c r="DT28" s="9"/>
+      <c r="DU28" s="9"/>
+      <c r="DV28" s="9"/>
+      <c r="DW28" s="9"/>
+      <c r="DX28" s="9"/>
+      <c r="DY28" s="9"/>
+      <c r="DZ28" s="9"/>
+      <c r="EA28" s="9"/>
+      <c r="EB28" s="9"/>
+      <c r="EC28" s="9"/>
+      <c r="ED28" s="9"/>
+      <c r="EE28" s="9"/>
+      <c r="EF28" s="9"/>
+      <c r="EG28" s="9"/>
+      <c r="EH28" s="9"/>
+      <c r="EI28" s="9"/>
+      <c r="EJ28" s="9"/>
+      <c r="EK28" s="9"/>
+      <c r="EL28" s="9"/>
+      <c r="EM28" s="9"/>
+      <c r="EN28" s="9"/>
+      <c r="EO28" s="10"/>
     </row>
-    <row r="29" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
       <c r="F29" s="5"/>
@@ -3192,46 +4182,48 @@
       <c r="K29" s="5"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="4"/>
+      <c r="N29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="6"/>
+      <c r="AS29" s="6"/>
+      <c r="AT29" s="6"/>
+      <c r="AU29" s="6"/>
+      <c r="AV29" s="6"/>
+      <c r="AW29" s="6"/>
+      <c r="AX29" s="6"/>
+      <c r="AY29" s="6"/>
       <c r="AZ29" s="7"/>
       <c r="BA29" s="6"/>
       <c r="BB29" s="6"/>
@@ -3241,44 +4233,83 @@
       <c r="BF29" s="6"/>
       <c r="BG29" s="7"/>
       <c r="BH29" s="7"/>
-      <c r="BM29" s="6"/>
-      <c r="BN29" s="6"/>
-      <c r="BO29" s="6"/>
-      <c r="BP29" s="6"/>
-      <c r="BQ29" s="6"/>
-      <c r="BR29" s="6"/>
-      <c r="BS29" s="6"/>
-      <c r="BT29" s="6"/>
-      <c r="BU29" s="6"/>
-      <c r="BV29" s="6"/>
-      <c r="BW29" s="6"/>
-      <c r="BX29" s="6"/>
-      <c r="BY29" s="6"/>
-      <c r="BZ29" s="6"/>
-      <c r="CA29" s="6"/>
-      <c r="CB29" s="6"/>
-      <c r="CC29" s="6"/>
-      <c r="CD29" s="6"/>
-      <c r="CE29" s="6"/>
-      <c r="CF29" s="6"/>
-      <c r="CG29" s="6"/>
-      <c r="CH29" s="6"/>
-      <c r="CI29" s="6"/>
-      <c r="CJ29" s="6"/>
-      <c r="CK29" s="6"/>
-      <c r="CL29" s="6"/>
-      <c r="CM29" s="6"/>
-      <c r="CN29" s="6"/>
-      <c r="CO29" s="6"/>
-      <c r="CP29" s="6"/>
-      <c r="CQ29" s="6"/>
-      <c r="CR29" s="6"/>
-      <c r="CS29" s="6"/>
-      <c r="CT29" s="6"/>
-      <c r="CU29" s="6"/>
-      <c r="CV29" s="6"/>
+      <c r="BL29" s="8"/>
+      <c r="BM29" s="9"/>
+      <c r="BN29" s="9"/>
+      <c r="BO29" s="9"/>
+      <c r="BP29" s="9"/>
+      <c r="BQ29" s="9"/>
+      <c r="BR29" s="9"/>
+      <c r="BS29" s="9"/>
+      <c r="BT29" s="9"/>
+      <c r="BU29" s="9"/>
+      <c r="BV29" s="9"/>
+      <c r="BW29" s="9"/>
+      <c r="BX29" s="9"/>
+      <c r="BY29" s="9"/>
+      <c r="BZ29" s="9"/>
+      <c r="CA29" s="9"/>
+      <c r="CB29" s="9"/>
+      <c r="CC29" s="9"/>
+      <c r="CD29" s="9"/>
+      <c r="CE29" s="9"/>
+      <c r="CF29" s="9"/>
+      <c r="CG29" s="9"/>
+      <c r="CH29" s="9"/>
+      <c r="CI29" s="9"/>
+      <c r="CJ29" s="9"/>
+      <c r="CK29" s="9"/>
+      <c r="CL29" s="9"/>
+      <c r="CM29" s="9"/>
+      <c r="CN29" s="9"/>
+      <c r="CO29" s="9"/>
+      <c r="CP29" s="9"/>
+      <c r="CQ29" s="9"/>
+      <c r="CR29" s="9"/>
+      <c r="CS29" s="9"/>
+      <c r="CT29" s="9"/>
+      <c r="CU29" s="9"/>
+      <c r="CV29" s="9"/>
+      <c r="CW29" s="9"/>
+      <c r="CX29" s="10"/>
+      <c r="DF29" s="6"/>
+      <c r="DG29" s="6"/>
+      <c r="DH29" s="6"/>
+      <c r="DI29" s="6"/>
+      <c r="DJ29" s="6"/>
+      <c r="DK29" s="6"/>
+      <c r="DL29" s="6"/>
+      <c r="DM29" s="6"/>
+      <c r="DN29" s="6"/>
+      <c r="DO29" s="6"/>
+      <c r="DP29" s="6"/>
+      <c r="DQ29" s="6"/>
+      <c r="DR29" s="6"/>
+      <c r="DS29" s="6"/>
+      <c r="DT29" s="6"/>
+      <c r="DU29" s="6"/>
+      <c r="DV29" s="6"/>
+      <c r="DW29" s="6"/>
+      <c r="DX29" s="6"/>
+      <c r="DY29" s="6"/>
+      <c r="DZ29" s="6"/>
+      <c r="EA29" s="6"/>
+      <c r="EB29" s="6"/>
+      <c r="EC29" s="6"/>
+      <c r="ED29" s="6"/>
+      <c r="EE29" s="6"/>
+      <c r="EF29" s="6"/>
+      <c r="EG29" s="6"/>
+      <c r="EH29" s="6"/>
+      <c r="EI29" s="6"/>
+      <c r="EJ29" s="6"/>
+      <c r="EK29" s="6"/>
+      <c r="EL29" s="6"/>
+      <c r="EM29" s="6"/>
+      <c r="EN29" s="6"/>
+      <c r="EO29" s="6"/>
     </row>
-    <row r="30" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
       <c r="F30" s="5"/>
@@ -3289,14 +4320,14 @@
       <c r="K30" s="5"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="R30" s="3"/>
-      <c r="S30" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -3309,9 +4340,7 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
-      <c r="AF30" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
@@ -3329,8 +4358,8 @@
       <c r="AU30" s="3"/>
       <c r="AV30" s="3"/>
       <c r="AW30" s="3"/>
-      <c r="AX30" s="4"/>
-      <c r="AY30" s="7"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="4"/>
       <c r="AZ30" s="7"/>
       <c r="BA30" s="6"/>
       <c r="BB30" s="6"/>
@@ -3340,8 +4369,44 @@
       <c r="BF30" s="6"/>
       <c r="BG30" s="7"/>
       <c r="BH30" s="7"/>
+      <c r="BM30" s="6"/>
+      <c r="BN30" s="6"/>
+      <c r="BO30" s="6"/>
+      <c r="BP30" s="6"/>
+      <c r="BQ30" s="6"/>
+      <c r="BR30" s="6"/>
+      <c r="BS30" s="6"/>
+      <c r="BT30" s="6"/>
+      <c r="BU30" s="6"/>
+      <c r="BV30" s="6"/>
+      <c r="BW30" s="6"/>
+      <c r="BX30" s="6"/>
+      <c r="BY30" s="6"/>
+      <c r="BZ30" s="6"/>
+      <c r="CA30" s="6"/>
+      <c r="CB30" s="6"/>
+      <c r="CC30" s="6"/>
+      <c r="CD30" s="6"/>
+      <c r="CE30" s="6"/>
+      <c r="CF30" s="6"/>
+      <c r="CG30" s="6"/>
+      <c r="CH30" s="6"/>
+      <c r="CI30" s="6"/>
+      <c r="CJ30" s="6"/>
+      <c r="CK30" s="6"/>
+      <c r="CL30" s="6"/>
+      <c r="CM30" s="6"/>
+      <c r="CN30" s="6"/>
+      <c r="CO30" s="6"/>
+      <c r="CP30" s="6"/>
+      <c r="CQ30" s="6"/>
+      <c r="CR30" s="6"/>
+      <c r="CS30" s="6"/>
+      <c r="CT30" s="6"/>
+      <c r="CU30" s="6"/>
+      <c r="CV30" s="6"/>
     </row>
-    <row r="31" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
       <c r="F31" s="5"/>
@@ -3355,13 +4420,13 @@
       <c r="N31" s="5"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="T31" s="3"/>
-      <c r="U31" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
@@ -3372,7 +4437,9 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
+      <c r="AF31" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
@@ -3389,8 +4456,8 @@
       <c r="AT31" s="3"/>
       <c r="AU31" s="3"/>
       <c r="AV31" s="3"/>
-      <c r="AW31" s="4"/>
-      <c r="AX31" s="7"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="4"/>
       <c r="AY31" s="7"/>
       <c r="AZ31" s="7"/>
       <c r="BA31" s="6"/>
@@ -3402,7 +4469,7 @@
       <c r="BG31" s="7"/>
       <c r="BH31" s="7"/>
     </row>
-    <row r="32" spans="4:100" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:145" x14ac:dyDescent="0.15">
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
       <c r="F32" s="5"/>
@@ -3418,37 +4485,39 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="6"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="6"/>
-      <c r="AK32" s="6"/>
-      <c r="AL32" s="6"/>
-      <c r="AM32" s="6"/>
-      <c r="AN32" s="6"/>
-      <c r="AO32" s="6"/>
-      <c r="AP32" s="6"/>
-      <c r="AQ32" s="6"/>
-      <c r="AR32" s="6"/>
-      <c r="AS32" s="6"/>
-      <c r="AT32" s="6"/>
-      <c r="AU32" s="6"/>
-      <c r="AV32" s="6"/>
-      <c r="AW32" s="7"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="4"/>
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="AZ32" s="7"/>
@@ -3461,7 +4530,7 @@
       <c r="BG32" s="7"/>
       <c r="BH32" s="7"/>
     </row>
-    <row r="33" spans="4:60" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
       <c r="F33" s="5"/>
@@ -3479,9 +4548,7 @@
       <c r="R33" s="6"/>
       <c r="S33" s="5"/>
       <c r="T33" s="6"/>
-      <c r="U33" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="U33" s="6"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
@@ -3522,7 +4589,7 @@
       <c r="BG33" s="7"/>
       <c r="BH33" s="7"/>
     </row>
-    <row r="34" spans="4:60" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
       <c r="F34" s="5"/>
@@ -3541,7 +4608,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
@@ -3583,7 +4650,7 @@
       <c r="BG34" s="7"/>
       <c r="BH34" s="7"/>
     </row>
-    <row r="35" spans="4:60" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D35" s="5"/>
       <c r="E35" s="6"/>
       <c r="F35" s="5"/>
@@ -3601,33 +4668,33 @@
       <c r="R35" s="6"/>
       <c r="S35" s="5"/>
       <c r="T35" s="6"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="4"/>
+      <c r="U35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="6"/>
+      <c r="AR35" s="6"/>
+      <c r="AS35" s="6"/>
       <c r="AT35" s="6"/>
       <c r="AU35" s="6"/>
       <c r="AV35" s="6"/>
@@ -3644,7 +4711,7 @@
       <c r="BG35" s="7"/>
       <c r="BH35" s="7"/>
     </row>
-    <row r="36" spans="4:60" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
       <c r="F36" s="5"/>
@@ -3662,33 +4729,33 @@
       <c r="R36" s="6"/>
       <c r="S36" s="5"/>
       <c r="T36" s="6"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="6"/>
-      <c r="AO36" s="6"/>
-      <c r="AP36" s="6"/>
-      <c r="AQ36" s="6"/>
-      <c r="AR36" s="6"/>
-      <c r="AS36" s="7"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="4"/>
       <c r="AT36" s="6"/>
       <c r="AU36" s="6"/>
       <c r="AV36" s="6"/>
@@ -3705,7 +4772,7 @@
       <c r="BG36" s="7"/>
       <c r="BH36" s="7"/>
     </row>
-    <row r="37" spans="4:60" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D37" s="5"/>
       <c r="E37" s="6"/>
       <c r="F37" s="5"/>
@@ -3726,7 +4793,7 @@
       <c r="U37" s="5"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
@@ -3766,7 +4833,7 @@
       <c r="BG37" s="7"/>
       <c r="BH37" s="7"/>
     </row>
-    <row r="38" spans="4:60" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
       <c r="F38" s="5"/>
@@ -3787,7 +4854,7 @@
       <c r="U38" s="5"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
@@ -3827,7 +4894,7 @@
       <c r="BG38" s="7"/>
       <c r="BH38" s="7"/>
     </row>
-    <row r="39" spans="4:60" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D39" s="5"/>
       <c r="E39" s="6"/>
       <c r="F39" s="5"/>
@@ -3845,33 +4912,33 @@
       <c r="R39" s="6"/>
       <c r="S39" s="5"/>
       <c r="T39" s="6"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9"/>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="9"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="9"/>
-      <c r="AJ39" s="9"/>
-      <c r="AK39" s="9"/>
-      <c r="AL39" s="9"/>
-      <c r="AM39" s="9"/>
-      <c r="AN39" s="9"/>
-      <c r="AO39" s="9"/>
-      <c r="AP39" s="9"/>
-      <c r="AQ39" s="9"/>
-      <c r="AR39" s="9"/>
-      <c r="AS39" s="10"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="6"/>
+      <c r="AN39" s="6"/>
+      <c r="AO39" s="6"/>
+      <c r="AP39" s="6"/>
+      <c r="AQ39" s="6"/>
+      <c r="AR39" s="6"/>
+      <c r="AS39" s="7"/>
       <c r="AT39" s="6"/>
       <c r="AU39" s="6"/>
       <c r="AV39" s="6"/>
@@ -3888,7 +4955,7 @@
       <c r="BG39" s="7"/>
       <c r="BH39" s="7"/>
     </row>
-    <row r="40" spans="4:60" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
       <c r="F40" s="5"/>
@@ -3906,31 +4973,33 @@
       <c r="R40" s="6"/>
       <c r="S40" s="5"/>
       <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="6"/>
-      <c r="AL40" s="6"/>
-      <c r="AM40" s="6"/>
-      <c r="AN40" s="6"/>
-      <c r="AO40" s="6"/>
-      <c r="AP40" s="6"/>
-      <c r="AQ40" s="6"/>
-      <c r="AR40" s="6"/>
-      <c r="AS40" s="6"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="9"/>
+      <c r="AJ40" s="9"/>
+      <c r="AK40" s="9"/>
+      <c r="AL40" s="9"/>
+      <c r="AM40" s="9"/>
+      <c r="AN40" s="9"/>
+      <c r="AO40" s="9"/>
+      <c r="AP40" s="9"/>
+      <c r="AQ40" s="9"/>
+      <c r="AR40" s="9"/>
+      <c r="AS40" s="10"/>
       <c r="AT40" s="6"/>
       <c r="AU40" s="6"/>
       <c r="AV40" s="6"/>
@@ -3947,7 +5016,7 @@
       <c r="BG40" s="7"/>
       <c r="BH40" s="7"/>
     </row>
-    <row r="41" spans="4:60" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="5"/>
@@ -3965,9 +5034,7 @@
       <c r="R41" s="6"/>
       <c r="S41" s="5"/>
       <c r="T41" s="6"/>
-      <c r="U41" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="U41" s="6"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
@@ -4008,7 +5075,7 @@
       <c r="BG41" s="7"/>
       <c r="BH41" s="7"/>
     </row>
-    <row r="42" spans="4:60" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
       <c r="F42" s="5"/>
@@ -4024,37 +5091,39 @@
       <c r="P42" s="6"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="6"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="9"/>
-      <c r="AE42" s="9"/>
-      <c r="AF42" s="9"/>
-      <c r="AG42" s="9"/>
-      <c r="AH42" s="9"/>
-      <c r="AI42" s="9"/>
-      <c r="AJ42" s="9"/>
-      <c r="AK42" s="9"/>
-      <c r="AL42" s="9"/>
-      <c r="AM42" s="9"/>
-      <c r="AN42" s="9"/>
-      <c r="AO42" s="9"/>
-      <c r="AP42" s="9"/>
-      <c r="AQ42" s="9"/>
-      <c r="AR42" s="9"/>
-      <c r="AS42" s="9"/>
-      <c r="AT42" s="9"/>
-      <c r="AU42" s="9"/>
-      <c r="AV42" s="9"/>
-      <c r="AW42" s="10"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="6"/>
+      <c r="AN42" s="6"/>
+      <c r="AO42" s="6"/>
+      <c r="AP42" s="6"/>
+      <c r="AQ42" s="6"/>
+      <c r="AR42" s="6"/>
+      <c r="AS42" s="6"/>
+      <c r="AT42" s="6"/>
+      <c r="AU42" s="6"/>
+      <c r="AV42" s="6"/>
+      <c r="AW42" s="7"/>
       <c r="AX42" s="7"/>
       <c r="AY42" s="7"/>
       <c r="AZ42" s="7"/>
@@ -4067,7 +5136,7 @@
       <c r="BG42" s="7"/>
       <c r="BH42" s="7"/>
     </row>
-    <row r="43" spans="4:60" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D43" s="5"/>
       <c r="E43" s="6"/>
       <c r="F43" s="5"/>
@@ -4081,9 +5150,9 @@
       <c r="N43" s="5"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="8"/>
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
@@ -4113,8 +5182,8 @@
       <c r="AT43" s="9"/>
       <c r="AU43" s="9"/>
       <c r="AV43" s="9"/>
-      <c r="AW43" s="9"/>
-      <c r="AX43" s="10"/>
+      <c r="AW43" s="10"/>
+      <c r="AX43" s="7"/>
       <c r="AY43" s="7"/>
       <c r="AZ43" s="7"/>
       <c r="BA43" s="6"/>
@@ -4126,7 +5195,7 @@
       <c r="BG43" s="7"/>
       <c r="BH43" s="7"/>
     </row>
-    <row r="44" spans="4:60" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="5"/>
@@ -4137,12 +5206,10 @@
       <c r="K44" s="5"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="8"/>
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
@@ -4175,8 +5242,8 @@
       <c r="AU44" s="9"/>
       <c r="AV44" s="9"/>
       <c r="AW44" s="9"/>
-      <c r="AX44" s="9"/>
-      <c r="AY44" s="10"/>
+      <c r="AX44" s="10"/>
+      <c r="AY44" s="7"/>
       <c r="AZ44" s="7"/>
       <c r="BA44" s="6"/>
       <c r="BB44" s="6"/>
@@ -4187,7 +5254,7 @@
       <c r="BG44" s="7"/>
       <c r="BH44" s="7"/>
     </row>
-    <row r="45" spans="4:60" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
       <c r="F45" s="5"/>
@@ -4195,13 +5262,15 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="8"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
+      <c r="Q45" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
@@ -4235,8 +5304,8 @@
       <c r="AV45" s="9"/>
       <c r="AW45" s="9"/>
       <c r="AX45" s="9"/>
-      <c r="AY45" s="9"/>
-      <c r="AZ45" s="10"/>
+      <c r="AY45" s="10"/>
+      <c r="AZ45" s="7"/>
       <c r="BA45" s="6"/>
       <c r="BB45" s="6"/>
       <c r="BC45" s="6"/>
@@ -4246,7 +5315,7 @@
       <c r="BG45" s="7"/>
       <c r="BH45" s="7"/>
     </row>
-    <row r="46" spans="4:60" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
       <c r="F46" s="5"/>
@@ -4254,48 +5323,48 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6"/>
-      <c r="AE46" s="6"/>
-      <c r="AF46" s="6"/>
-      <c r="AG46" s="6"/>
-      <c r="AH46" s="6"/>
-      <c r="AI46" s="6"/>
-      <c r="AJ46" s="6"/>
-      <c r="AK46" s="6"/>
-      <c r="AL46" s="6"/>
-      <c r="AM46" s="6"/>
-      <c r="AN46" s="6"/>
-      <c r="AO46" s="6"/>
-      <c r="AP46" s="6"/>
-      <c r="AQ46" s="6"/>
-      <c r="AR46" s="6"/>
-      <c r="AS46" s="6"/>
-      <c r="AT46" s="6"/>
-      <c r="AU46" s="6"/>
-      <c r="AV46" s="6"/>
-      <c r="AW46" s="6"/>
-      <c r="AX46" s="6"/>
-      <c r="AY46" s="6"/>
-      <c r="AZ46" s="6"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
+      <c r="AG46" s="9"/>
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="9"/>
+      <c r="AJ46" s="9"/>
+      <c r="AK46" s="9"/>
+      <c r="AL46" s="9"/>
+      <c r="AM46" s="9"/>
+      <c r="AN46" s="9"/>
+      <c r="AO46" s="9"/>
+      <c r="AP46" s="9"/>
+      <c r="AQ46" s="9"/>
+      <c r="AR46" s="9"/>
+      <c r="AS46" s="9"/>
+      <c r="AT46" s="9"/>
+      <c r="AU46" s="9"/>
+      <c r="AV46" s="9"/>
+      <c r="AW46" s="9"/>
+      <c r="AX46" s="9"/>
+      <c r="AY46" s="9"/>
+      <c r="AZ46" s="10"/>
       <c r="BA46" s="6"/>
       <c r="BB46" s="6"/>
       <c r="BC46" s="6"/>
@@ -4305,7 +5374,7 @@
       <c r="BG46" s="7"/>
       <c r="BH46" s="7"/>
     </row>
-    <row r="47" spans="4:60" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="F47" s="5"/>
@@ -4313,58 +5382,58 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="9"/>
-      <c r="AC47" s="9"/>
-      <c r="AD47" s="9"/>
-      <c r="AE47" s="9"/>
-      <c r="AF47" s="9"/>
-      <c r="AG47" s="9"/>
-      <c r="AH47" s="9"/>
-      <c r="AI47" s="9"/>
-      <c r="AJ47" s="9"/>
-      <c r="AK47" s="9"/>
-      <c r="AL47" s="9"/>
-      <c r="AM47" s="9"/>
-      <c r="AN47" s="9"/>
-      <c r="AO47" s="9"/>
-      <c r="AP47" s="9"/>
-      <c r="AQ47" s="9"/>
-      <c r="AR47" s="9"/>
-      <c r="AS47" s="9"/>
-      <c r="AT47" s="9"/>
-      <c r="AU47" s="9"/>
-      <c r="AV47" s="9"/>
-      <c r="AW47" s="9"/>
-      <c r="AX47" s="9"/>
-      <c r="AY47" s="9"/>
-      <c r="AZ47" s="9"/>
-      <c r="BA47" s="9"/>
-      <c r="BB47" s="9"/>
-      <c r="BC47" s="9"/>
-      <c r="BD47" s="9"/>
-      <c r="BE47" s="9"/>
-      <c r="BF47" s="9"/>
-      <c r="BG47" s="10"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="6"/>
+      <c r="AM47" s="6"/>
+      <c r="AN47" s="6"/>
+      <c r="AO47" s="6"/>
+      <c r="AP47" s="6"/>
+      <c r="AQ47" s="6"/>
+      <c r="AR47" s="6"/>
+      <c r="AS47" s="6"/>
+      <c r="AT47" s="6"/>
+      <c r="AU47" s="6"/>
+      <c r="AV47" s="6"/>
+      <c r="AW47" s="6"/>
+      <c r="AX47" s="6"/>
+      <c r="AY47" s="6"/>
+      <c r="AZ47" s="6"/>
+      <c r="BA47" s="6"/>
+      <c r="BB47" s="6"/>
+      <c r="BC47" s="6"/>
+      <c r="BD47" s="6"/>
+      <c r="BE47" s="6"/>
+      <c r="BF47" s="6"/>
+      <c r="BG47" s="7"/>
       <c r="BH47" s="7"/>
     </row>
-    <row r="48" spans="4:60" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
       <c r="F48" s="5"/>
@@ -4420,10 +5489,10 @@
       <c r="BD48" s="9"/>
       <c r="BE48" s="9"/>
       <c r="BF48" s="9"/>
-      <c r="BG48" s="9"/>
-      <c r="BH48" s="10"/>
+      <c r="BG48" s="10"/>
+      <c r="BH48" s="7"/>
     </row>
-    <row r="49" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D49" s="5"/>
       <c r="E49" s="6"/>
       <c r="F49" s="5"/>
@@ -4431,8 +5500,58 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="9"/>
+      <c r="AG49" s="9"/>
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="9"/>
+      <c r="AJ49" s="9"/>
+      <c r="AK49" s="9"/>
+      <c r="AL49" s="9"/>
+      <c r="AM49" s="9"/>
+      <c r="AN49" s="9"/>
+      <c r="AO49" s="9"/>
+      <c r="AP49" s="9"/>
+      <c r="AQ49" s="9"/>
+      <c r="AR49" s="9"/>
+      <c r="AS49" s="9"/>
+      <c r="AT49" s="9"/>
+      <c r="AU49" s="9"/>
+      <c r="AV49" s="9"/>
+      <c r="AW49" s="9"/>
+      <c r="AX49" s="9"/>
+      <c r="AY49" s="9"/>
+      <c r="AZ49" s="9"/>
+      <c r="BA49" s="9"/>
+      <c r="BB49" s="9"/>
+      <c r="BC49" s="9"/>
+      <c r="BD49" s="9"/>
+      <c r="BE49" s="9"/>
+      <c r="BF49" s="9"/>
+      <c r="BG49" s="9"/>
+      <c r="BH49" s="10"/>
     </row>
-    <row r="50" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
       <c r="F50" s="5"/>
@@ -4441,23 +5560,32 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:60" x14ac:dyDescent="0.15">
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
+    <row r="52" spans="4:60" x14ac:dyDescent="0.15">
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="8"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
+    </row>
+    <row r="53" spans="4:60" x14ac:dyDescent="0.15">
+      <c r="D53" s="8"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
